--- a/testing_results/results.xlsx
+++ b/testing_results/results.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZC-PC\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\reinforce_debug\testing_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AD6AC3-71A6-4732-8BDE-84BD1957A17E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08640809-1A6B-4240-93C1-464B94BC2403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8565" yWindow="2805" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,7 +142,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -181,20 +181,26 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -480,8 +486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="M18:AD116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R59" workbookViewId="0">
-      <selection activeCell="W84" sqref="W84"/>
+    <sheetView tabSelected="1" topLeftCell="R34" workbookViewId="0">
+      <selection activeCell="Z37" activeCellId="2" sqref="Y34 T37:T63 Z37:AA63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -698,29 +704,29 @@
     </row>
     <row r="35" spans="14:30" x14ac:dyDescent="0.25">
       <c r="R35" s="17"/>
-      <c r="S35" s="14"/>
-      <c r="T35" s="18" t="s">
+      <c r="S35" s="15"/>
+      <c r="T35" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18" t="s">
+      <c r="U35" s="16"/>
+      <c r="V35" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="W35" s="18"/>
-      <c r="X35" s="18" t="s">
+      <c r="W35" s="16"/>
+      <c r="X35" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Y35" s="18"/>
-      <c r="Z35" s="14" t="s">
+      <c r="Y35" s="16"/>
+      <c r="Z35" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AA35" s="14" t="s">
+      <c r="AA35" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AB35" s="14" t="s">
+      <c r="AB35" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC35" s="14" t="s">
+      <c r="AC35" s="15" t="s">
         <v>2</v>
       </c>
       <c r="AD35" s="17" t="s">
@@ -728,8 +734,8 @@
       </c>
     </row>
     <row r="36" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R36" s="14"/>
-      <c r="S36" s="14"/>
+      <c r="R36" s="15"/>
+      <c r="S36" s="15"/>
       <c r="T36" s="2" t="s">
         <v>5</v>
       </c>
@@ -748,21 +754,25 @@
       <c r="Y36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z36" s="14"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="14"/>
-      <c r="AD36" s="14"/>
+      <c r="Z36" s="15"/>
+      <c r="AA36" s="15"/>
+      <c r="AB36" s="15"/>
+      <c r="AC36" s="15"/>
+      <c r="AD36" s="15"/>
     </row>
     <row r="37" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R37" s="14" t="s">
+      <c r="R37" s="15" t="s">
         <v>4</v>
       </c>
       <c r="S37" s="2">
         <v>500</v>
       </c>
-      <c r="T37" s="10"/>
-      <c r="U37" s="10"/>
+      <c r="T37" s="10">
+        <v>4.9038586604487899E-2</v>
+      </c>
+      <c r="U37" s="10">
+        <v>5.1602158853347499E-2</v>
+      </c>
       <c r="V37" s="10"/>
       <c r="W37" s="10"/>
       <c r="X37" s="10"/>
@@ -773,24 +783,28 @@
       <c r="AA37" s="10">
         <v>4.131192202196405E-2</v>
       </c>
-      <c r="AB37" s="15">
+      <c r="AB37" s="18">
         <v>0.22309999999999999</v>
       </c>
-      <c r="AC37" s="16" t="s">
+      <c r="AC37" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="AD37" s="15" t="s">
+      <c r="AD37" s="18" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="38" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N38" s="2"/>
-      <c r="R38" s="14"/>
+      <c r="R38" s="15"/>
       <c r="S38" s="2">
         <v>1000</v>
       </c>
-      <c r="T38" s="10"/>
-      <c r="U38" s="10"/>
+      <c r="T38" s="10">
+        <v>4.1875581816872898E-2</v>
+      </c>
+      <c r="U38" s="10">
+        <v>4.1934902631354798E-2</v>
+      </c>
       <c r="V38" s="10"/>
       <c r="W38" s="10"/>
       <c r="X38" s="10"/>
@@ -801,18 +815,22 @@
       <c r="AA38" s="10">
         <v>3.5464940860376173E-2</v>
       </c>
-      <c r="AB38" s="15"/>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="15"/>
+      <c r="AB38" s="18"/>
+      <c r="AC38" s="20"/>
+      <c r="AD38" s="18"/>
     </row>
     <row r="39" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N39" s="2"/>
-      <c r="R39" s="14"/>
+      <c r="R39" s="15"/>
       <c r="S39" s="2">
         <v>2000</v>
       </c>
-      <c r="T39" s="10"/>
-      <c r="U39" s="10"/>
+      <c r="T39" s="10">
+        <v>3.3312998149671501E-2</v>
+      </c>
+      <c r="U39" s="10">
+        <v>3.5703199144383801E-2</v>
+      </c>
       <c r="V39" s="10"/>
       <c r="W39" s="10"/>
       <c r="X39" s="10"/>
@@ -823,20 +841,24 @@
       <c r="AA39" s="10">
         <v>3.305335165909961E-2</v>
       </c>
-      <c r="AB39" s="15"/>
-      <c r="AC39" s="16"/>
-      <c r="AD39" s="15"/>
+      <c r="AB39" s="18"/>
+      <c r="AC39" s="20"/>
+      <c r="AD39" s="18"/>
     </row>
     <row r="40" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N40" s="2"/>
-      <c r="R40" s="14" t="s">
+      <c r="R40" s="15" t="s">
         <v>6</v>
       </c>
       <c r="S40" s="2">
         <v>500</v>
       </c>
-      <c r="T40" s="10"/>
-      <c r="U40" s="10"/>
+      <c r="T40" s="10">
+        <v>0.109218919248196</v>
+      </c>
+      <c r="U40" s="10">
+        <v>0.11103490432284099</v>
+      </c>
       <c r="V40" s="10"/>
       <c r="W40" s="10"/>
       <c r="X40" s="10"/>
@@ -847,24 +869,28 @@
       <c r="AA40" s="10">
         <v>7.5060378575190295E-2</v>
       </c>
-      <c r="AB40" s="15">
+      <c r="AB40" s="18">
         <v>0.2601</v>
       </c>
-      <c r="AC40" s="15">
+      <c r="AC40" s="18">
         <v>0.153</v>
       </c>
-      <c r="AD40" s="15">
+      <c r="AD40" s="18">
         <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="41" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N41" s="2"/>
-      <c r="R41" s="14"/>
+      <c r="R41" s="15"/>
       <c r="S41" s="2">
         <v>1000</v>
       </c>
-      <c r="T41" s="10"/>
-      <c r="U41" s="10"/>
+      <c r="T41" s="10">
+        <v>9.1049779970612199E-2</v>
+      </c>
+      <c r="U41" s="10">
+        <v>9.5525494738869607E-2</v>
+      </c>
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
       <c r="X41" s="10"/>
@@ -875,18 +901,22 @@
       <c r="AA41" s="10">
         <v>6.2918757652814239E-2</v>
       </c>
-      <c r="AB41" s="15"/>
-      <c r="AC41" s="15"/>
-      <c r="AD41" s="15"/>
+      <c r="AB41" s="18"/>
+      <c r="AC41" s="18"/>
+      <c r="AD41" s="18"/>
     </row>
     <row r="42" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N42" s="2"/>
-      <c r="R42" s="14"/>
+      <c r="R42" s="15"/>
       <c r="S42" s="2">
         <v>2000</v>
       </c>
-      <c r="T42" s="10"/>
-      <c r="U42" s="10"/>
+      <c r="T42" s="10">
+        <v>7.8611999373717503E-2</v>
+      </c>
+      <c r="U42" s="10">
+        <v>7.9455673340254496E-2</v>
+      </c>
       <c r="V42" s="10"/>
       <c r="W42" s="10"/>
       <c r="X42" s="10"/>
@@ -897,20 +927,24 @@
       <c r="AA42" s="10">
         <v>5.3326321728132453E-2</v>
       </c>
-      <c r="AB42" s="15"/>
-      <c r="AC42" s="15"/>
-      <c r="AD42" s="15"/>
+      <c r="AB42" s="18"/>
+      <c r="AC42" s="18"/>
+      <c r="AD42" s="18"/>
     </row>
     <row r="43" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N43" s="2"/>
-      <c r="R43" s="14" t="s">
+      <c r="R43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="S43" s="2">
         <v>500</v>
       </c>
-      <c r="T43" s="10"/>
-      <c r="U43" s="10"/>
+      <c r="T43" s="10">
+        <v>0.137603398265562</v>
+      </c>
+      <c r="U43" s="10">
+        <v>0.14636302066923701</v>
+      </c>
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
       <c r="X43" s="10"/>
@@ -921,24 +955,28 @@
       <c r="AA43" s="10">
         <v>9.5576566423238279E-2</v>
       </c>
-      <c r="AB43" s="15">
+      <c r="AB43" s="18">
         <v>0.30220000000000002</v>
       </c>
-      <c r="AC43" s="15">
+      <c r="AC43" s="18">
         <v>0.19400000000000001</v>
       </c>
-      <c r="AD43" s="15">
+      <c r="AD43" s="18">
         <v>0.20200000000000001</v>
       </c>
     </row>
     <row r="44" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N44" s="2"/>
-      <c r="R44" s="14"/>
+      <c r="R44" s="15"/>
       <c r="S44" s="2">
         <v>1000</v>
       </c>
-      <c r="T44" s="10"/>
-      <c r="U44" s="10"/>
+      <c r="T44" s="10">
+        <v>0.12827040192768699</v>
+      </c>
+      <c r="U44" s="10">
+        <v>0.13380121561993899</v>
+      </c>
       <c r="V44" s="10"/>
       <c r="W44" s="10"/>
       <c r="X44" s="10"/>
@@ -949,18 +987,22 @@
       <c r="AA44" s="10">
         <v>9.0800495453678173E-2</v>
       </c>
-      <c r="AB44" s="15"/>
-      <c r="AC44" s="15"/>
-      <c r="AD44" s="15"/>
+      <c r="AB44" s="18"/>
+      <c r="AC44" s="18"/>
+      <c r="AD44" s="18"/>
     </row>
     <row r="45" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N45" s="2"/>
-      <c r="R45" s="14"/>
+      <c r="R45" s="15"/>
       <c r="S45" s="2">
         <v>2000</v>
       </c>
-      <c r="T45" s="10"/>
-      <c r="U45" s="10"/>
+      <c r="T45" s="10">
+        <v>0.11439323821540601</v>
+      </c>
+      <c r="U45" s="10">
+        <v>0.11381935792360499</v>
+      </c>
       <c r="V45" s="10"/>
       <c r="W45" s="10"/>
       <c r="X45" s="10"/>
@@ -971,20 +1013,24 @@
       <c r="AA45" s="10">
         <v>8.0211340873238432E-2</v>
       </c>
-      <c r="AB45" s="15"/>
-      <c r="AC45" s="15"/>
-      <c r="AD45" s="15"/>
+      <c r="AB45" s="18"/>
+      <c r="AC45" s="18"/>
+      <c r="AD45" s="18"/>
     </row>
     <row r="46" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N46" s="2"/>
-      <c r="R46" s="14" t="s">
+      <c r="R46" s="15" t="s">
         <v>9</v>
       </c>
       <c r="S46" s="2">
         <v>500</v>
       </c>
-      <c r="T46" s="10"/>
-      <c r="U46" s="10"/>
+      <c r="T46" s="10">
+        <v>0.142070740265242</v>
+      </c>
+      <c r="U46" s="10">
+        <v>0.15380839107875599</v>
+      </c>
       <c r="V46" s="10"/>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
@@ -995,24 +1041,28 @@
       <c r="AA46" s="10">
         <v>9.5042090819800223E-2</v>
       </c>
-      <c r="AB46" s="15">
+      <c r="AB46" s="18">
         <v>0.3165</v>
       </c>
-      <c r="AC46" s="15">
+      <c r="AC46" s="18">
         <v>0.17199999999999999</v>
       </c>
-      <c r="AD46" s="15">
+      <c r="AD46" s="18">
         <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="47" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N47" s="2"/>
-      <c r="R47" s="14"/>
+      <c r="R47" s="15"/>
       <c r="S47" s="2">
         <v>1000</v>
       </c>
-      <c r="T47" s="10"/>
-      <c r="U47" s="10"/>
+      <c r="T47" s="10">
+        <v>0.13357705975846099</v>
+      </c>
+      <c r="U47" s="10">
+        <v>0.14701036610214799</v>
+      </c>
       <c r="V47" s="10"/>
       <c r="W47" s="10"/>
       <c r="X47" s="10"/>
@@ -1023,18 +1073,22 @@
       <c r="AA47" s="10">
         <v>8.1518245526609412E-2</v>
       </c>
-      <c r="AB47" s="15"/>
-      <c r="AC47" s="15"/>
-      <c r="AD47" s="15"/>
+      <c r="AB47" s="18"/>
+      <c r="AC47" s="18"/>
+      <c r="AD47" s="18"/>
     </row>
     <row r="48" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N48" s="2"/>
-      <c r="R48" s="14"/>
+      <c r="R48" s="15"/>
       <c r="S48" s="2">
         <v>2000</v>
       </c>
-      <c r="T48" s="10"/>
-      <c r="U48" s="10"/>
+      <c r="T48" s="10">
+        <v>0.122496716326478</v>
+      </c>
+      <c r="U48" s="10">
+        <v>0.13687129197488801</v>
+      </c>
       <c r="V48" s="10"/>
       <c r="W48" s="10"/>
       <c r="X48" s="10"/>
@@ -1045,20 +1099,24 @@
       <c r="AA48" s="10">
         <v>7.9552882005758413E-2</v>
       </c>
-      <c r="AB48" s="15"/>
-      <c r="AC48" s="15"/>
-      <c r="AD48" s="15"/>
+      <c r="AB48" s="18"/>
+      <c r="AC48" s="18"/>
+      <c r="AD48" s="18"/>
     </row>
     <row r="49" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N49" s="2"/>
-      <c r="R49" s="14" t="s">
+      <c r="R49" s="15" t="s">
         <v>10</v>
       </c>
       <c r="S49" s="2">
         <v>500</v>
       </c>
-      <c r="T49" s="10"/>
-      <c r="U49" s="10"/>
+      <c r="T49" s="10">
+        <v>0.16082487412518701</v>
+      </c>
+      <c r="U49" s="10">
+        <v>0.17556699386677699</v>
+      </c>
       <c r="V49" s="10"/>
       <c r="W49" s="10"/>
       <c r="X49" s="10"/>
@@ -1069,24 +1127,28 @@
       <c r="AA49" s="10">
         <v>0.15015819804763289</v>
       </c>
-      <c r="AB49" s="15">
+      <c r="AB49" s="18">
         <v>0.33110000000000001</v>
       </c>
-      <c r="AC49" s="15">
+      <c r="AC49" s="18">
         <v>0.18</v>
       </c>
-      <c r="AD49" s="15">
+      <c r="AD49" s="18">
         <v>0.189</v>
       </c>
     </row>
     <row r="50" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N50" s="2"/>
-      <c r="R50" s="14"/>
+      <c r="R50" s="15"/>
       <c r="S50" s="2">
         <v>1000</v>
       </c>
-      <c r="T50" s="10"/>
-      <c r="U50" s="10"/>
+      <c r="T50" s="10">
+        <v>0.14108535833123201</v>
+      </c>
+      <c r="U50" s="10">
+        <v>0.15219050664860301</v>
+      </c>
       <c r="V50" s="10"/>
       <c r="W50" s="10"/>
       <c r="X50" s="10"/>
@@ -1097,18 +1159,22 @@
       <c r="AA50" s="10">
         <v>0.1224445226875083</v>
       </c>
-      <c r="AB50" s="15"/>
-      <c r="AC50" s="15"/>
-      <c r="AD50" s="15"/>
+      <c r="AB50" s="18"/>
+      <c r="AC50" s="18"/>
+      <c r="AD50" s="18"/>
     </row>
     <row r="51" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N51" s="2"/>
-      <c r="R51" s="14"/>
+      <c r="R51" s="15"/>
       <c r="S51" s="2">
         <v>2000</v>
       </c>
-      <c r="T51" s="10"/>
-      <c r="U51" s="10"/>
+      <c r="T51" s="10">
+        <v>0.12452513779374701</v>
+      </c>
+      <c r="U51" s="10">
+        <v>0.13493309967233799</v>
+      </c>
       <c r="V51" s="10"/>
       <c r="W51" s="10"/>
       <c r="X51" s="10"/>
@@ -1119,20 +1185,24 @@
       <c r="AA51" s="10">
         <v>0.13044688553761841</v>
       </c>
-      <c r="AB51" s="15"/>
-      <c r="AC51" s="15"/>
-      <c r="AD51" s="15"/>
+      <c r="AB51" s="18"/>
+      <c r="AC51" s="18"/>
+      <c r="AD51" s="18"/>
     </row>
     <row r="52" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N52" s="2"/>
-      <c r="R52" s="14" t="s">
+      <c r="R52" s="15" t="s">
         <v>11</v>
       </c>
       <c r="S52" s="2">
         <v>500</v>
       </c>
-      <c r="T52" s="9"/>
-      <c r="U52" s="9"/>
+      <c r="T52" s="14">
+        <v>0.192479975410696</v>
+      </c>
+      <c r="U52" s="14">
+        <v>0.20715937580716701</v>
+      </c>
       <c r="V52" s="9"/>
       <c r="W52" s="9"/>
       <c r="X52" s="9"/>
@@ -1143,23 +1213,27 @@
       <c r="AA52" s="9">
         <v>0.15554999999999999</v>
       </c>
-      <c r="AB52" s="15">
+      <c r="AB52" s="18">
         <v>0.33660000000000001</v>
       </c>
-      <c r="AC52" s="15">
+      <c r="AC52" s="18">
         <v>0.187</v>
       </c>
-      <c r="AD52" s="15">
+      <c r="AD52" s="18">
         <v>0.254</v>
       </c>
     </row>
     <row r="53" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R53" s="14"/>
+      <c r="R53" s="15"/>
       <c r="S53" s="2">
         <v>1000</v>
       </c>
-      <c r="T53" s="9"/>
-      <c r="U53" s="9"/>
+      <c r="T53" s="14">
+        <v>0.18063680424256201</v>
+      </c>
+      <c r="U53" s="14">
+        <v>0.18559679717001901</v>
+      </c>
       <c r="V53" s="9"/>
       <c r="W53" s="9"/>
       <c r="X53" s="9"/>
@@ -1170,17 +1244,21 @@
       <c r="AA53" s="9">
         <v>0.13542999999999999</v>
       </c>
-      <c r="AB53" s="15"/>
-      <c r="AC53" s="15"/>
-      <c r="AD53" s="15"/>
+      <c r="AB53" s="18"/>
+      <c r="AC53" s="18"/>
+      <c r="AD53" s="18"/>
     </row>
     <row r="54" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R54" s="14"/>
+      <c r="R54" s="15"/>
       <c r="S54" s="2">
         <v>2000</v>
       </c>
-      <c r="T54" s="9"/>
-      <c r="U54" s="9"/>
+      <c r="T54" s="14">
+        <v>0.164205491927156</v>
+      </c>
+      <c r="U54" s="14">
+        <v>0.17364247940629399</v>
+      </c>
       <c r="V54" s="9"/>
       <c r="W54" s="9"/>
       <c r="X54" s="9"/>
@@ -1191,19 +1269,23 @@
       <c r="AA54" s="9">
         <v>0.13653999999999999</v>
       </c>
-      <c r="AB54" s="15"/>
-      <c r="AC54" s="15"/>
-      <c r="AD54" s="15"/>
+      <c r="AB54" s="18"/>
+      <c r="AC54" s="18"/>
+      <c r="AD54" s="18"/>
     </row>
     <row r="55" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R55" s="14" t="s">
+      <c r="R55" s="15" t="s">
         <v>12</v>
       </c>
       <c r="S55" s="2">
         <v>500</v>
       </c>
-      <c r="T55" s="10"/>
-      <c r="U55" s="10"/>
+      <c r="T55" s="10">
+        <v>0.104403499883803</v>
+      </c>
+      <c r="U55" s="10">
+        <v>0.11653707210257</v>
+      </c>
       <c r="V55" s="10"/>
       <c r="W55" s="10"/>
       <c r="X55" s="10"/>
@@ -1214,23 +1296,27 @@
       <c r="AA55" s="10">
         <v>9.5992092848552785E-2</v>
       </c>
-      <c r="AB55" s="15">
+      <c r="AB55" s="18">
         <v>0.22470000000000001</v>
       </c>
-      <c r="AC55" s="15">
+      <c r="AC55" s="18">
         <v>0.13800000000000001</v>
       </c>
-      <c r="AD55" s="15">
+      <c r="AD55" s="18">
         <v>0.159</v>
       </c>
     </row>
     <row r="56" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R56" s="14"/>
+      <c r="R56" s="15"/>
       <c r="S56" s="2">
         <v>1000</v>
       </c>
-      <c r="T56" s="10"/>
-      <c r="U56" s="10"/>
+      <c r="T56" s="10">
+        <v>8.4156849606946998E-2</v>
+      </c>
+      <c r="U56" s="10">
+        <v>9.5540205554438998E-2</v>
+      </c>
       <c r="V56" s="10"/>
       <c r="W56" s="10"/>
       <c r="X56" s="10"/>
@@ -1241,17 +1327,21 @@
       <c r="AA56" s="10">
         <v>8.7989755185643365E-2</v>
       </c>
-      <c r="AB56" s="15"/>
-      <c r="AC56" s="15"/>
-      <c r="AD56" s="15"/>
+      <c r="AB56" s="18"/>
+      <c r="AC56" s="18"/>
+      <c r="AD56" s="18"/>
     </row>
     <row r="57" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R57" s="14"/>
+      <c r="R57" s="15"/>
       <c r="S57" s="2">
         <v>2000</v>
       </c>
-      <c r="T57" s="10"/>
-      <c r="U57" s="10"/>
+      <c r="T57" s="10">
+        <v>6.7178246113744303E-2</v>
+      </c>
+      <c r="U57" s="10">
+        <v>7.7071419895945903E-2</v>
+      </c>
       <c r="V57" s="10"/>
       <c r="W57" s="10"/>
       <c r="X57" s="10"/>
@@ -1262,19 +1352,23 @@
       <c r="AA57" s="10">
         <v>8.9122340895006563E-2</v>
       </c>
-      <c r="AB57" s="15"/>
-      <c r="AC57" s="15"/>
-      <c r="AD57" s="15"/>
+      <c r="AB57" s="18"/>
+      <c r="AC57" s="18"/>
+      <c r="AD57" s="18"/>
     </row>
     <row r="58" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R58" s="14" t="s">
+      <c r="R58" s="15" t="s">
         <v>13</v>
       </c>
       <c r="S58" s="2">
         <v>500</v>
       </c>
-      <c r="T58" s="10"/>
-      <c r="U58" s="10"/>
+      <c r="T58" s="10">
+        <v>0.13968515692590899</v>
+      </c>
+      <c r="U58" s="10">
+        <v>0.145071431313543</v>
+      </c>
       <c r="V58" s="10"/>
       <c r="W58" s="10"/>
       <c r="X58" s="10"/>
@@ -1285,23 +1379,27 @@
       <c r="AA58" s="10">
         <v>0.11002205723648149</v>
       </c>
-      <c r="AB58" s="15">
+      <c r="AB58" s="18">
         <v>0.26550000000000001</v>
       </c>
-      <c r="AC58" s="15">
+      <c r="AC58" s="18">
         <v>0.13500000000000001</v>
       </c>
-      <c r="AD58" s="15">
+      <c r="AD58" s="18">
         <v>0.17399999999999999</v>
       </c>
     </row>
     <row r="59" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R59" s="14"/>
+      <c r="R59" s="15"/>
       <c r="S59" s="2">
         <v>1000</v>
       </c>
-      <c r="T59" s="10"/>
-      <c r="U59" s="10"/>
+      <c r="T59" s="10">
+        <v>0.121856474359452</v>
+      </c>
+      <c r="U59" s="10">
+        <v>0.13267519895687499</v>
+      </c>
       <c r="V59" s="10"/>
       <c r="W59" s="10"/>
       <c r="X59" s="10"/>
@@ -1312,17 +1410,21 @@
       <c r="AA59" s="10">
         <v>9.9799436468565761E-2</v>
       </c>
-      <c r="AB59" s="15"/>
-      <c r="AC59" s="15"/>
-      <c r="AD59" s="15"/>
+      <c r="AB59" s="18"/>
+      <c r="AC59" s="18"/>
+      <c r="AD59" s="18"/>
     </row>
     <row r="60" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R60" s="14"/>
+      <c r="R60" s="15"/>
       <c r="S60" s="2">
         <v>2000</v>
       </c>
-      <c r="T60" s="10"/>
-      <c r="U60" s="10"/>
+      <c r="T60" s="10">
+        <v>0.105101382742104</v>
+      </c>
+      <c r="U60" s="10">
+        <v>0.114484466098544</v>
+      </c>
       <c r="V60" s="10"/>
       <c r="W60" s="10"/>
       <c r="X60" s="10"/>
@@ -1333,19 +1435,23 @@
       <c r="AA60" s="10">
         <v>8.620059030379669E-2</v>
       </c>
-      <c r="AB60" s="15"/>
-      <c r="AC60" s="15"/>
-      <c r="AD60" s="15"/>
+      <c r="AB60" s="18"/>
+      <c r="AC60" s="18"/>
+      <c r="AD60" s="18"/>
     </row>
     <row r="61" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R61" s="14" t="s">
+      <c r="R61" s="15" t="s">
         <v>14</v>
       </c>
       <c r="S61" s="2">
         <v>500</v>
       </c>
-      <c r="T61" s="10"/>
-      <c r="U61" s="10"/>
+      <c r="T61" s="10">
+        <v>7.5805271501747401E-2</v>
+      </c>
+      <c r="U61" s="10">
+        <v>7.6521577786481901E-2</v>
+      </c>
       <c r="V61" s="10"/>
       <c r="W61" s="10"/>
       <c r="X61" s="10"/>
@@ -1356,23 +1462,27 @@
       <c r="AA61" s="10">
         <v>6.2987731738569364E-2</v>
       </c>
-      <c r="AB61" s="15">
+      <c r="AB61" s="18">
         <v>0.1366</v>
       </c>
-      <c r="AC61" s="15">
+      <c r="AC61" s="18">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="AD61" s="15">
+      <c r="AD61" s="18">
         <v>7.0000000000000007E-2</v>
       </c>
     </row>
     <row r="62" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R62" s="14"/>
+      <c r="R62" s="15"/>
       <c r="S62" s="2">
         <v>1000</v>
       </c>
-      <c r="T62" s="10"/>
-      <c r="U62" s="10"/>
+      <c r="T62" s="10">
+        <v>5.9979940745037097E-2</v>
+      </c>
+      <c r="U62" s="10">
+        <v>6.0671204903355799E-2</v>
+      </c>
       <c r="V62" s="10"/>
       <c r="W62" s="10"/>
       <c r="X62" s="10"/>
@@ -1383,16 +1493,18 @@
       <c r="AA62" s="10">
         <v>4.8776938486307993E-2</v>
       </c>
-      <c r="AB62" s="15"/>
-      <c r="AC62" s="15"/>
-      <c r="AD62" s="15"/>
+      <c r="AB62" s="18"/>
+      <c r="AC62" s="18"/>
+      <c r="AD62" s="18"/>
     </row>
     <row r="63" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R63" s="14"/>
+      <c r="R63" s="15"/>
       <c r="S63" s="2">
         <v>2000</v>
       </c>
-      <c r="T63" s="10"/>
+      <c r="T63" s="10">
+        <v>4.2468056823099502E-2</v>
+      </c>
       <c r="U63" s="10"/>
       <c r="V63" s="10"/>
       <c r="W63" s="10"/>
@@ -1404,46 +1516,46 @@
       <c r="AA63" s="10">
         <v>4.3658381259155027E-2</v>
       </c>
-      <c r="AB63" s="15"/>
-      <c r="AC63" s="15"/>
-      <c r="AD63" s="15"/>
+      <c r="AB63" s="18"/>
+      <c r="AC63" s="18"/>
+      <c r="AD63" s="18"/>
     </row>
     <row r="66" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R66" s="14" t="s">
+      <c r="R66" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="S66" s="14"/>
-      <c r="T66" s="18" t="s">
+      <c r="S66" s="15"/>
+      <c r="T66" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="U66" s="18"/>
-      <c r="V66" s="18" t="s">
+      <c r="U66" s="16"/>
+      <c r="V66" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="W66" s="18"/>
-      <c r="X66" s="18" t="s">
+      <c r="W66" s="16"/>
+      <c r="X66" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="Y66" s="18"/>
-      <c r="Z66" s="14" t="s">
+      <c r="Y66" s="16"/>
+      <c r="Z66" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="AA66" s="14" t="s">
+      <c r="AA66" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="AB66" s="14" t="s">
+      <c r="AB66" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="AC66" s="14" t="s">
+      <c r="AC66" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="AD66" s="14" t="s">
+      <c r="AD66" s="15" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="67" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R67" s="14"/>
-      <c r="S67" s="14"/>
+      <c r="R67" s="15"/>
+      <c r="S67" s="15"/>
       <c r="T67" s="12" t="s">
         <v>5</v>
       </c>
@@ -1462,21 +1574,25 @@
       <c r="Y67" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Z67" s="14"/>
-      <c r="AA67" s="14"/>
-      <c r="AB67" s="14"/>
-      <c r="AC67" s="14"/>
-      <c r="AD67" s="14"/>
+      <c r="Z67" s="15"/>
+      <c r="AA67" s="15"/>
+      <c r="AB67" s="15"/>
+      <c r="AC67" s="15"/>
+      <c r="AD67" s="15"/>
     </row>
     <row r="68" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R68" s="14" t="s">
+      <c r="R68" s="15" t="s">
         <v>4</v>
       </c>
       <c r="S68" s="2">
         <v>500</v>
       </c>
-      <c r="T68" s="11"/>
-      <c r="U68" s="11"/>
+      <c r="T68" s="11">
+        <v>0.71460000000000001</v>
+      </c>
+      <c r="U68" s="11">
+        <v>0.7056</v>
+      </c>
       <c r="V68" s="11"/>
       <c r="W68" s="11"/>
       <c r="X68" s="11"/>
@@ -1487,23 +1603,27 @@
       <c r="AA68" s="11">
         <v>23.031238255500789</v>
       </c>
-      <c r="AB68" s="13">
+      <c r="AB68" s="19">
         <v>0.17649999999999999</v>
       </c>
-      <c r="AC68" s="14" t="s">
+      <c r="AC68" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AD68" s="14" t="s">
+      <c r="AD68" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="69" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R69" s="14"/>
+      <c r="R69" s="15"/>
       <c r="S69" s="2">
         <v>1000</v>
       </c>
-      <c r="T69" s="11"/>
-      <c r="U69" s="11"/>
+      <c r="T69" s="11">
+        <v>1.4473</v>
+      </c>
+      <c r="U69" s="11">
+        <v>1.4305000000000001</v>
+      </c>
       <c r="V69" s="11"/>
       <c r="W69" s="11"/>
       <c r="X69" s="11"/>
@@ -1514,17 +1634,21 @@
       <c r="AA69" s="11">
         <v>45.989559793472289</v>
       </c>
-      <c r="AB69" s="13"/>
-      <c r="AC69" s="14"/>
-      <c r="AD69" s="14"/>
+      <c r="AB69" s="19"/>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="15"/>
     </row>
     <row r="70" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R70" s="14"/>
+      <c r="R70" s="15"/>
       <c r="S70" s="2">
         <v>2000</v>
       </c>
-      <c r="T70" s="11"/>
-      <c r="U70" s="11"/>
+      <c r="T70" s="11">
+        <v>2.8896000000000002</v>
+      </c>
+      <c r="U70" s="11">
+        <v>2.8673000000000002</v>
+      </c>
       <c r="V70" s="11"/>
       <c r="W70" s="11"/>
       <c r="X70" s="11"/>
@@ -1535,19 +1659,23 @@
       <c r="AA70" s="11">
         <v>91.03469082593918</v>
       </c>
-      <c r="AB70" s="13"/>
-      <c r="AC70" s="14"/>
-      <c r="AD70" s="14"/>
+      <c r="AB70" s="19"/>
+      <c r="AC70" s="15"/>
+      <c r="AD70" s="15"/>
     </row>
     <row r="71" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R71" s="14" t="s">
+      <c r="R71" s="15" t="s">
         <v>6</v>
       </c>
       <c r="S71" s="2">
         <v>500</v>
       </c>
-      <c r="T71" s="11"/>
-      <c r="U71" s="11"/>
+      <c r="T71" s="11">
+        <v>2.8628</v>
+      </c>
+      <c r="U71" s="11">
+        <v>2.8395999999999999</v>
+      </c>
       <c r="V71" s="11"/>
       <c r="W71" s="11"/>
       <c r="X71" s="11"/>
@@ -1558,23 +1686,27 @@
       <c r="AA71" s="11">
         <v>45.614059638977047</v>
       </c>
-      <c r="AB71" s="13">
+      <c r="AB71" s="19">
         <v>0.4471</v>
       </c>
-      <c r="AC71" s="14" t="s">
+      <c r="AC71" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AD71" s="14" t="s">
+      <c r="AD71" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="72" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R72" s="14"/>
+      <c r="R72" s="15"/>
       <c r="S72" s="2">
         <v>1000</v>
       </c>
-      <c r="T72" s="11"/>
-      <c r="U72" s="11"/>
+      <c r="T72" s="11">
+        <v>5.7073</v>
+      </c>
+      <c r="U72" s="11">
+        <v>5.7821999999999996</v>
+      </c>
       <c r="V72" s="11"/>
       <c r="W72" s="11"/>
       <c r="X72" s="11"/>
@@ -1585,17 +1717,21 @@
       <c r="AA72" s="11">
         <v>94.371467232704163</v>
       </c>
-      <c r="AB72" s="13"/>
-      <c r="AC72" s="14"/>
-      <c r="AD72" s="14"/>
+      <c r="AB72" s="19"/>
+      <c r="AC72" s="15"/>
+      <c r="AD72" s="15"/>
     </row>
     <row r="73" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R73" s="14"/>
+      <c r="R73" s="15"/>
       <c r="S73" s="2">
         <v>2000</v>
       </c>
-      <c r="T73" s="11"/>
-      <c r="U73" s="11"/>
+      <c r="T73" s="11">
+        <v>11.6341</v>
+      </c>
+      <c r="U73" s="11">
+        <v>11.4244</v>
+      </c>
       <c r="V73" s="11"/>
       <c r="W73" s="11"/>
       <c r="X73" s="11"/>
@@ -1606,19 +1742,23 @@
       <c r="AA73" s="11">
         <v>181.21347374916081</v>
       </c>
-      <c r="AB73" s="13"/>
-      <c r="AC73" s="14"/>
-      <c r="AD73" s="14"/>
+      <c r="AB73" s="19"/>
+      <c r="AC73" s="15"/>
+      <c r="AD73" s="15"/>
     </row>
     <row r="74" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R74" s="14" t="s">
+      <c r="R74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="S74" s="2">
         <v>500</v>
       </c>
-      <c r="T74" s="11"/>
-      <c r="U74" s="11"/>
+      <c r="T74" s="11">
+        <v>3.5916999999999999</v>
+      </c>
+      <c r="U74" s="11">
+        <v>3.5183</v>
+      </c>
       <c r="V74" s="11"/>
       <c r="W74" s="11"/>
       <c r="X74" s="11"/>
@@ -1629,23 +1769,27 @@
       <c r="AA74" s="11">
         <v>56.951492929458617</v>
       </c>
-      <c r="AB74" s="13">
+      <c r="AB74" s="19">
         <v>0.624</v>
       </c>
-      <c r="AC74" s="14" t="s">
+      <c r="AC74" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AD74" s="14" t="s">
+      <c r="AD74" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="75" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R75" s="14"/>
+      <c r="R75" s="15"/>
       <c r="S75" s="2">
         <v>1000</v>
       </c>
-      <c r="T75" s="11"/>
-      <c r="U75" s="11"/>
+      <c r="T75" s="11">
+        <v>7.1115000000000004</v>
+      </c>
+      <c r="U75" s="11">
+        <v>7.0991999999999997</v>
+      </c>
       <c r="V75" s="11"/>
       <c r="W75" s="11"/>
       <c r="X75" s="11"/>
@@ -1656,17 +1800,21 @@
       <c r="AA75" s="11">
         <v>108.1727962255478</v>
       </c>
-      <c r="AB75" s="13"/>
-      <c r="AC75" s="14"/>
-      <c r="AD75" s="14"/>
+      <c r="AB75" s="19"/>
+      <c r="AC75" s="15"/>
+      <c r="AD75" s="15"/>
     </row>
     <row r="76" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R76" s="14"/>
+      <c r="R76" s="15"/>
       <c r="S76" s="2">
         <v>2000</v>
       </c>
-      <c r="T76" s="11"/>
-      <c r="U76" s="11"/>
+      <c r="T76" s="11">
+        <v>14.2699</v>
+      </c>
+      <c r="U76" s="11">
+        <v>14.6005</v>
+      </c>
       <c r="V76" s="11"/>
       <c r="W76" s="11"/>
       <c r="X76" s="11"/>
@@ -1677,19 +1825,23 @@
       <c r="AA76" s="11">
         <v>220.99487323760991</v>
       </c>
-      <c r="AB76" s="13"/>
-      <c r="AC76" s="14"/>
-      <c r="AD76" s="14"/>
+      <c r="AB76" s="19"/>
+      <c r="AC76" s="15"/>
+      <c r="AD76" s="15"/>
     </row>
     <row r="77" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R77" s="14" t="s">
+      <c r="R77" s="15" t="s">
         <v>9</v>
       </c>
       <c r="S77" s="2">
         <v>500</v>
       </c>
-      <c r="T77" s="11"/>
-      <c r="U77" s="11"/>
+      <c r="T77" s="11">
+        <v>4.5884</v>
+      </c>
+      <c r="U77" s="11">
+        <v>4.5166000000000004</v>
+      </c>
       <c r="V77" s="11"/>
       <c r="W77" s="11"/>
       <c r="X77" s="11"/>
@@ -1700,23 +1852,27 @@
       <c r="AA77" s="11">
         <v>85.806196355819708</v>
       </c>
-      <c r="AB77" s="13">
+      <c r="AB77" s="19">
         <v>0.93700000000000006</v>
       </c>
-      <c r="AC77" s="14" t="s">
+      <c r="AC77" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AD77" s="14" t="s">
+      <c r="AD77" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="78" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R78" s="14"/>
+      <c r="R78" s="15"/>
       <c r="S78" s="2">
         <v>1000</v>
       </c>
-      <c r="T78" s="11"/>
-      <c r="U78" s="11"/>
+      <c r="T78" s="11">
+        <v>9.0632000000000001</v>
+      </c>
+      <c r="U78" s="11">
+        <v>9.0388000000000002</v>
+      </c>
       <c r="V78" s="11"/>
       <c r="W78" s="11"/>
       <c r="X78" s="11"/>
@@ -1727,17 +1883,21 @@
       <c r="AA78" s="11">
         <v>166.8294932126999</v>
       </c>
-      <c r="AB78" s="13"/>
-      <c r="AC78" s="14"/>
-      <c r="AD78" s="14"/>
+      <c r="AB78" s="19"/>
+      <c r="AC78" s="15"/>
+      <c r="AD78" s="15"/>
     </row>
     <row r="79" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R79" s="14"/>
+      <c r="R79" s="15"/>
       <c r="S79" s="2">
         <v>2000</v>
       </c>
-      <c r="T79" s="11"/>
-      <c r="U79" s="11"/>
+      <c r="T79" s="11">
+        <v>18.1418</v>
+      </c>
+      <c r="U79" s="11">
+        <v>18.325500000000002</v>
+      </c>
       <c r="V79" s="11"/>
       <c r="W79" s="11"/>
       <c r="X79" s="11"/>
@@ -1748,19 +1908,23 @@
       <c r="AA79" s="11">
         <v>335.19313392639162</v>
       </c>
-      <c r="AB79" s="13"/>
-      <c r="AC79" s="14"/>
-      <c r="AD79" s="14"/>
+      <c r="AB79" s="19"/>
+      <c r="AC79" s="15"/>
+      <c r="AD79" s="15"/>
     </row>
     <row r="80" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R80" s="14" t="s">
+      <c r="R80" s="15" t="s">
         <v>10</v>
       </c>
       <c r="S80" s="2">
         <v>500</v>
       </c>
-      <c r="T80" s="11"/>
-      <c r="U80" s="11"/>
+      <c r="T80" s="11">
+        <v>5.0152999999999999</v>
+      </c>
+      <c r="U80" s="11">
+        <v>5.0781000000000001</v>
+      </c>
       <c r="V80" s="11"/>
       <c r="W80" s="11"/>
       <c r="X80" s="11"/>
@@ -1771,23 +1935,27 @@
       <c r="AA80" s="11">
         <v>77.7067616224289</v>
       </c>
-      <c r="AB80" s="13">
+      <c r="AB80" s="19">
         <v>1.1140000000000001</v>
       </c>
-      <c r="AC80" s="14" t="s">
+      <c r="AC80" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AD80" s="14" t="s">
+      <c r="AD80" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="81" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R81" s="14"/>
+      <c r="R81" s="15"/>
       <c r="S81" s="2">
         <v>1000</v>
       </c>
-      <c r="T81" s="11"/>
-      <c r="U81" s="11"/>
+      <c r="T81" s="11">
+        <v>10.020899999999999</v>
+      </c>
+      <c r="U81" s="11">
+        <v>9.9977999999999998</v>
+      </c>
       <c r="V81" s="11"/>
       <c r="W81" s="11"/>
       <c r="X81" s="11"/>
@@ -1798,17 +1966,21 @@
       <c r="AA81" s="11">
         <v>151.92343058586121</v>
       </c>
-      <c r="AB81" s="13"/>
-      <c r="AC81" s="14"/>
-      <c r="AD81" s="14"/>
+      <c r="AB81" s="19"/>
+      <c r="AC81" s="15"/>
+      <c r="AD81" s="15"/>
     </row>
     <row r="82" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R82" s="14"/>
+      <c r="R82" s="15"/>
       <c r="S82" s="2">
         <v>2000</v>
       </c>
-      <c r="T82" s="11"/>
-      <c r="U82" s="11"/>
+      <c r="T82" s="11">
+        <v>20.046700000000001</v>
+      </c>
+      <c r="U82" s="11">
+        <v>19.814399999999999</v>
+      </c>
       <c r="V82" s="11"/>
       <c r="W82" s="11"/>
       <c r="X82" s="11"/>
@@ -1819,19 +1991,23 @@
       <c r="AA82" s="11">
         <v>311.46112883090967</v>
       </c>
-      <c r="AB82" s="13"/>
-      <c r="AC82" s="14"/>
-      <c r="AD82" s="14"/>
+      <c r="AB82" s="19"/>
+      <c r="AC82" s="15"/>
+      <c r="AD82" s="15"/>
     </row>
     <row r="83" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R83" s="14" t="s">
+      <c r="R83" s="15" t="s">
         <v>11</v>
       </c>
       <c r="S83" s="2">
         <v>500</v>
       </c>
-      <c r="T83" s="8"/>
-      <c r="U83" s="8"/>
+      <c r="T83" s="13">
+        <v>6.3531000000000004</v>
+      </c>
+      <c r="U83" s="13">
+        <v>6.2801999999999998</v>
+      </c>
       <c r="V83" s="8"/>
       <c r="W83" s="8"/>
       <c r="X83" s="8"/>
@@ -1842,23 +2018,27 @@
       <c r="AA83" s="8">
         <v>119.97</v>
       </c>
-      <c r="AB83" s="13">
+      <c r="AB83" s="19">
         <v>1.7989999999999999</v>
       </c>
-      <c r="AC83" s="14" t="s">
+      <c r="AC83" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AD83" s="14" t="s">
+      <c r="AD83" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="84" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R84" s="14"/>
+      <c r="R84" s="15"/>
       <c r="S84" s="2">
         <v>1000</v>
       </c>
-      <c r="T84" s="8"/>
-      <c r="U84" s="8"/>
+      <c r="T84" s="13">
+        <v>12.682499999999999</v>
+      </c>
+      <c r="U84" s="13">
+        <v>12.523899999999999</v>
+      </c>
       <c r="V84" s="8"/>
       <c r="W84" s="8"/>
       <c r="X84" s="8"/>
@@ -1869,17 +2049,21 @@
       <c r="AA84" s="8">
         <v>239.208</v>
       </c>
-      <c r="AB84" s="13"/>
-      <c r="AC84" s="14"/>
-      <c r="AD84" s="14"/>
+      <c r="AB84" s="19"/>
+      <c r="AC84" s="15"/>
+      <c r="AD84" s="15"/>
     </row>
     <row r="85" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R85" s="14"/>
+      <c r="R85" s="15"/>
       <c r="S85" s="2">
         <v>2000</v>
       </c>
-      <c r="T85" s="8"/>
-      <c r="U85" s="8"/>
+      <c r="T85" s="13">
+        <v>25.4224</v>
+      </c>
+      <c r="U85" s="13">
+        <v>25.108899999999998</v>
+      </c>
       <c r="V85" s="8"/>
       <c r="W85" s="8"/>
       <c r="X85" s="8"/>
@@ -1890,19 +2074,23 @@
       <c r="AA85" s="8">
         <v>459.27699999999999</v>
       </c>
-      <c r="AB85" s="13"/>
-      <c r="AC85" s="14"/>
-      <c r="AD85" s="14"/>
+      <c r="AB85" s="19"/>
+      <c r="AC85" s="15"/>
+      <c r="AD85" s="15"/>
     </row>
     <row r="86" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R86" s="14" t="s">
+      <c r="R86" s="15" t="s">
         <v>12</v>
       </c>
       <c r="S86" s="2">
         <v>500</v>
       </c>
-      <c r="T86" s="8"/>
-      <c r="U86" s="8"/>
+      <c r="T86" s="13">
+        <v>8.3343000000000007</v>
+      </c>
+      <c r="U86" s="13">
+        <v>8.0092999999999996</v>
+      </c>
       <c r="V86" s="8"/>
       <c r="W86" s="8"/>
       <c r="X86" s="8"/>
@@ -1913,23 +2101,27 @@
       <c r="AA86" s="8">
         <v>112.211</v>
       </c>
-      <c r="AB86" s="13">
+      <c r="AB86" s="19">
         <v>2.6960000000000002</v>
       </c>
-      <c r="AC86" s="14" t="s">
+      <c r="AC86" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AD86" s="14" t="s">
+      <c r="AD86" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="87" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R87" s="14"/>
+      <c r="R87" s="15"/>
       <c r="S87" s="2">
         <v>1000</v>
       </c>
-      <c r="T87" s="8"/>
-      <c r="U87" s="8"/>
+      <c r="T87" s="13">
+        <v>16.021999999999998</v>
+      </c>
+      <c r="U87" s="13">
+        <v>16.0123</v>
+      </c>
       <c r="V87" s="8"/>
       <c r="W87" s="8"/>
       <c r="X87" s="8"/>
@@ -1940,17 +2132,21 @@
       <c r="AA87" s="8">
         <v>217.464</v>
       </c>
-      <c r="AB87" s="13"/>
-      <c r="AC87" s="14"/>
-      <c r="AD87" s="14"/>
+      <c r="AB87" s="19"/>
+      <c r="AC87" s="15"/>
+      <c r="AD87" s="15"/>
     </row>
     <row r="88" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R88" s="14"/>
+      <c r="R88" s="15"/>
       <c r="S88" s="2">
         <v>2000</v>
       </c>
-      <c r="T88" s="8"/>
-      <c r="U88" s="8"/>
+      <c r="T88" s="13">
+        <v>32.122599999999998</v>
+      </c>
+      <c r="U88" s="13">
+        <v>32.1419</v>
+      </c>
       <c r="V88" s="8"/>
       <c r="W88" s="8"/>
       <c r="X88" s="8"/>
@@ -1961,19 +2157,23 @@
       <c r="AA88" s="8">
         <v>605.226</v>
       </c>
-      <c r="AB88" s="13"/>
-      <c r="AC88" s="14"/>
-      <c r="AD88" s="14"/>
+      <c r="AB88" s="19"/>
+      <c r="AC88" s="15"/>
+      <c r="AD88" s="15"/>
     </row>
     <row r="89" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R89" s="14" t="s">
+      <c r="R89" s="15" t="s">
         <v>13</v>
       </c>
       <c r="S89" s="2">
         <v>500</v>
       </c>
-      <c r="T89" s="11"/>
-      <c r="U89" s="11"/>
+      <c r="T89" s="11">
+        <v>10.831200000000001</v>
+      </c>
+      <c r="U89" s="11">
+        <v>10.722300000000001</v>
+      </c>
       <c r="V89" s="11"/>
       <c r="W89" s="11"/>
       <c r="X89" s="11"/>
@@ -1984,23 +2184,27 @@
       <c r="AA89" s="11">
         <v>280.24865968227391</v>
       </c>
-      <c r="AB89" s="13">
+      <c r="AB89" s="19">
         <v>4.883</v>
       </c>
-      <c r="AC89" s="14" t="s">
+      <c r="AC89" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AD89" s="14" t="s">
+      <c r="AD89" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="90" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R90" s="14"/>
+      <c r="R90" s="15"/>
       <c r="S90" s="2">
         <v>1000</v>
       </c>
-      <c r="T90" s="11"/>
-      <c r="U90" s="11"/>
+      <c r="T90" s="11">
+        <v>21.6843</v>
+      </c>
+      <c r="U90" s="11">
+        <v>21.523700000000002</v>
+      </c>
       <c r="V90" s="11"/>
       <c r="W90" s="11"/>
       <c r="X90" s="11"/>
@@ -2011,17 +2215,21 @@
       <c r="AA90" s="11">
         <v>567.21448349952698</v>
       </c>
-      <c r="AB90" s="13"/>
-      <c r="AC90" s="14"/>
-      <c r="AD90" s="14"/>
+      <c r="AB90" s="19"/>
+      <c r="AC90" s="15"/>
+      <c r="AD90" s="15"/>
     </row>
     <row r="91" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R91" s="14"/>
+      <c r="R91" s="15"/>
       <c r="S91" s="2">
         <v>2000</v>
       </c>
-      <c r="T91" s="11"/>
-      <c r="U91" s="11"/>
+      <c r="T91" s="11">
+        <v>43.0182</v>
+      </c>
+      <c r="U91" s="11">
+        <v>42.598999999999997</v>
+      </c>
       <c r="V91" s="11"/>
       <c r="W91" s="11"/>
       <c r="X91" s="11"/>
@@ -2032,19 +2240,23 @@
       <c r="AA91" s="11">
         <v>1013.222328734398</v>
       </c>
-      <c r="AB91" s="13"/>
-      <c r="AC91" s="14"/>
-      <c r="AD91" s="14"/>
+      <c r="AB91" s="19"/>
+      <c r="AC91" s="15"/>
+      <c r="AD91" s="15"/>
     </row>
     <row r="92" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R92" s="14" t="s">
+      <c r="R92" s="15" t="s">
         <v>14</v>
       </c>
       <c r="S92" s="2">
         <v>500</v>
       </c>
-      <c r="T92" s="8"/>
-      <c r="U92" s="8"/>
+      <c r="T92" s="13">
+        <v>28.7834</v>
+      </c>
+      <c r="U92" s="13">
+        <v>28.5688</v>
+      </c>
       <c r="V92" s="8"/>
       <c r="W92" s="8"/>
       <c r="X92" s="8"/>
@@ -2055,23 +2267,27 @@
       <c r="AA92" s="8">
         <v>356.411</v>
       </c>
-      <c r="AB92" s="13">
+      <c r="AB92" s="19">
         <v>28.327999999999999</v>
       </c>
-      <c r="AC92" s="14" t="s">
+      <c r="AC92" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AD92" s="14" t="s">
+      <c r="AD92" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="93" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R93" s="14"/>
+      <c r="R93" s="15"/>
       <c r="S93" s="2">
         <v>1000</v>
       </c>
-      <c r="T93" s="8"/>
-      <c r="U93" s="8"/>
+      <c r="T93" s="13">
+        <v>57.615699999999997</v>
+      </c>
+      <c r="U93" s="13">
+        <v>56.761000000000003</v>
+      </c>
       <c r="V93" s="8"/>
       <c r="W93" s="8"/>
       <c r="X93" s="8"/>
@@ -2082,16 +2298,18 @@
       <c r="AA93" s="8">
         <v>940.48</v>
       </c>
-      <c r="AB93" s="13"/>
-      <c r="AC93" s="14"/>
-      <c r="AD93" s="14"/>
+      <c r="AB93" s="19"/>
+      <c r="AC93" s="15"/>
+      <c r="AD93" s="15"/>
     </row>
     <row r="94" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R94" s="14"/>
+      <c r="R94" s="15"/>
       <c r="S94" s="2">
         <v>2000</v>
       </c>
-      <c r="T94" s="8"/>
+      <c r="T94" s="13">
+        <v>114.1955</v>
+      </c>
       <c r="U94" s="8"/>
       <c r="V94" s="8"/>
       <c r="W94" s="8"/>
@@ -2103,9 +2321,9 @@
       <c r="AA94" s="8">
         <v>1807.9839999999999</v>
       </c>
-      <c r="AB94" s="13"/>
-      <c r="AC94" s="14"/>
-      <c r="AD94" s="14"/>
+      <c r="AB94" s="19"/>
+      <c r="AC94" s="15"/>
+      <c r="AD94" s="15"/>
     </row>
     <row r="111" spans="20:27" x14ac:dyDescent="0.25">
       <c r="T111" s="7"/>
@@ -2149,34 +2367,51 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="R52:R54"/>
-    <mergeCell ref="R55:R57"/>
-    <mergeCell ref="R58:R60"/>
-    <mergeCell ref="R61:R63"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="R37:R39"/>
-    <mergeCell ref="R40:R42"/>
-    <mergeCell ref="R43:R45"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="R35:S36"/>
-    <mergeCell ref="R46:R48"/>
-    <mergeCell ref="R49:R51"/>
-    <mergeCell ref="AB43:AB45"/>
-    <mergeCell ref="AB46:AB48"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="R66:S67"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="Z66:Z67"/>
-    <mergeCell ref="AA66:AA67"/>
-    <mergeCell ref="Z35:Z36"/>
-    <mergeCell ref="AA35:AA36"/>
-    <mergeCell ref="AB35:AB36"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AB37:AB39"/>
-    <mergeCell ref="AB40:AB42"/>
+    <mergeCell ref="AB89:AB91"/>
+    <mergeCell ref="AC89:AC91"/>
+    <mergeCell ref="AD89:AD91"/>
+    <mergeCell ref="AB92:AB94"/>
+    <mergeCell ref="AC92:AC94"/>
+    <mergeCell ref="AD92:AD94"/>
+    <mergeCell ref="AB83:AB85"/>
+    <mergeCell ref="AC83:AC85"/>
+    <mergeCell ref="AD83:AD85"/>
+    <mergeCell ref="AB86:AB88"/>
+    <mergeCell ref="AC86:AC88"/>
+    <mergeCell ref="AD86:AD88"/>
+    <mergeCell ref="AC77:AC79"/>
+    <mergeCell ref="AD77:AD79"/>
+    <mergeCell ref="AB80:AB82"/>
+    <mergeCell ref="AC80:AC82"/>
+    <mergeCell ref="AD80:AD82"/>
+    <mergeCell ref="AB68:AB70"/>
+    <mergeCell ref="AC68:AC70"/>
+    <mergeCell ref="AD68:AD70"/>
+    <mergeCell ref="AB71:AB73"/>
+    <mergeCell ref="AC71:AC73"/>
+    <mergeCell ref="AD71:AD73"/>
+    <mergeCell ref="AD55:AD57"/>
+    <mergeCell ref="AD58:AD60"/>
+    <mergeCell ref="AC49:AC51"/>
+    <mergeCell ref="AC52:AC54"/>
+    <mergeCell ref="AD61:AD63"/>
+    <mergeCell ref="AC61:AC63"/>
+    <mergeCell ref="AB52:AB54"/>
+    <mergeCell ref="AB55:AB57"/>
+    <mergeCell ref="AB58:AB60"/>
+    <mergeCell ref="AB61:AB63"/>
+    <mergeCell ref="AD37:AD39"/>
+    <mergeCell ref="AC43:AC45"/>
+    <mergeCell ref="AD40:AD42"/>
+    <mergeCell ref="AC46:AC48"/>
+    <mergeCell ref="AD43:AD45"/>
+    <mergeCell ref="AD46:AD48"/>
+    <mergeCell ref="AC37:AC39"/>
+    <mergeCell ref="AC40:AC42"/>
+    <mergeCell ref="AD49:AD51"/>
+    <mergeCell ref="AC55:AC57"/>
+    <mergeCell ref="AD52:AD54"/>
+    <mergeCell ref="AC58:AC60"/>
     <mergeCell ref="R92:R94"/>
     <mergeCell ref="AB66:AB67"/>
     <mergeCell ref="AC66:AC67"/>
@@ -2193,52 +2428,35 @@
     <mergeCell ref="R86:R88"/>
     <mergeCell ref="R89:R91"/>
     <mergeCell ref="AB77:AB79"/>
+    <mergeCell ref="AB43:AB45"/>
+    <mergeCell ref="AB46:AB48"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="R66:S67"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="Z66:Z67"/>
+    <mergeCell ref="AA66:AA67"/>
+    <mergeCell ref="Z35:Z36"/>
+    <mergeCell ref="AA35:AA36"/>
+    <mergeCell ref="AB35:AB36"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="AB37:AB39"/>
+    <mergeCell ref="AB40:AB42"/>
     <mergeCell ref="AB49:AB51"/>
-    <mergeCell ref="AB52:AB54"/>
-    <mergeCell ref="AB55:AB57"/>
-    <mergeCell ref="AB58:AB60"/>
-    <mergeCell ref="AB61:AB63"/>
-    <mergeCell ref="AD37:AD39"/>
-    <mergeCell ref="AC43:AC45"/>
-    <mergeCell ref="AD40:AD42"/>
-    <mergeCell ref="AC46:AC48"/>
-    <mergeCell ref="AD43:AD45"/>
-    <mergeCell ref="AD46:AD48"/>
-    <mergeCell ref="AC37:AC39"/>
-    <mergeCell ref="AC40:AC42"/>
-    <mergeCell ref="AD49:AD51"/>
-    <mergeCell ref="AC55:AC57"/>
-    <mergeCell ref="AD52:AD54"/>
-    <mergeCell ref="AC58:AC60"/>
-    <mergeCell ref="AD55:AD57"/>
-    <mergeCell ref="AD58:AD60"/>
-    <mergeCell ref="AC49:AC51"/>
-    <mergeCell ref="AC52:AC54"/>
-    <mergeCell ref="AD61:AD63"/>
-    <mergeCell ref="AB68:AB70"/>
-    <mergeCell ref="AC68:AC70"/>
-    <mergeCell ref="AD68:AD70"/>
-    <mergeCell ref="AB71:AB73"/>
-    <mergeCell ref="AC71:AC73"/>
-    <mergeCell ref="AD71:AD73"/>
-    <mergeCell ref="AC61:AC63"/>
-    <mergeCell ref="AC77:AC79"/>
-    <mergeCell ref="AD77:AD79"/>
-    <mergeCell ref="AB80:AB82"/>
-    <mergeCell ref="AC80:AC82"/>
-    <mergeCell ref="AD80:AD82"/>
-    <mergeCell ref="AB83:AB85"/>
-    <mergeCell ref="AC83:AC85"/>
-    <mergeCell ref="AD83:AD85"/>
-    <mergeCell ref="AB86:AB88"/>
-    <mergeCell ref="AC86:AC88"/>
-    <mergeCell ref="AD86:AD88"/>
-    <mergeCell ref="AB89:AB91"/>
-    <mergeCell ref="AC89:AC91"/>
-    <mergeCell ref="AD89:AD91"/>
-    <mergeCell ref="AB92:AB94"/>
-    <mergeCell ref="AC92:AC94"/>
-    <mergeCell ref="AD92:AD94"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="R35:S36"/>
+    <mergeCell ref="R46:R48"/>
+    <mergeCell ref="R49:R51"/>
+    <mergeCell ref="R52:R54"/>
+    <mergeCell ref="R55:R57"/>
+    <mergeCell ref="R58:R60"/>
+    <mergeCell ref="R61:R63"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="R37:R39"/>
+    <mergeCell ref="R40:R42"/>
+    <mergeCell ref="R43:R45"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/testing_results/results.xlsx
+++ b/testing_results/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\reinforce_debug\testing_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08640809-1A6B-4240-93C1-464B94BC2403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8D250B-AE7C-41A4-B4AA-893A0C1F6465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="8565" yWindow="2805" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -142,7 +142,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -184,23 +184,26 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -486,8 +489,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="M18:AD116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R34" workbookViewId="0">
-      <selection activeCell="Z37" activeCellId="2" sqref="Y34 T37:T63 Z37:AA63"/>
+    <sheetView tabSelected="1" topLeftCell="R61" workbookViewId="0">
+      <selection activeCell="U94" sqref="U94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -703,39 +706,39 @@
       <c r="O30" s="4"/>
     </row>
     <row r="35" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R35" s="17"/>
-      <c r="S35" s="15"/>
-      <c r="T35" s="16" t="s">
+      <c r="R35" s="20"/>
+      <c r="S35" s="17"/>
+      <c r="T35" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="U35" s="16"/>
-      <c r="V35" s="16" t="s">
+      <c r="U35" s="21"/>
+      <c r="V35" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W35" s="16"/>
-      <c r="X35" s="16" t="s">
+      <c r="W35" s="21"/>
+      <c r="X35" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y35" s="16"/>
-      <c r="Z35" s="15" t="s">
+      <c r="Y35" s="21"/>
+      <c r="Z35" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AA35" s="15" t="s">
+      <c r="AA35" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AB35" s="15" t="s">
+      <c r="AB35" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AC35" s="15" t="s">
+      <c r="AC35" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AD35" s="17" t="s">
+      <c r="AD35" s="20" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="36" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R36" s="15"/>
-      <c r="S36" s="15"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
       <c r="T36" s="2" t="s">
         <v>5</v>
       </c>
@@ -754,14 +757,14 @@
       <c r="Y36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="Z36" s="15"/>
-      <c r="AA36" s="15"/>
-      <c r="AB36" s="15"/>
-      <c r="AC36" s="15"/>
-      <c r="AD36" s="15"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="17"/>
+      <c r="AC36" s="17"/>
+      <c r="AD36" s="17"/>
     </row>
     <row r="37" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R37" s="15" t="s">
+      <c r="R37" s="17" t="s">
         <v>4</v>
       </c>
       <c r="S37" s="2">
@@ -786,7 +789,7 @@
       <c r="AB37" s="18">
         <v>0.22309999999999999</v>
       </c>
-      <c r="AC37" s="20" t="s">
+      <c r="AC37" s="19" t="s">
         <v>17</v>
       </c>
       <c r="AD37" s="18" t="s">
@@ -795,7 +798,7 @@
     </row>
     <row r="38" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N38" s="2"/>
-      <c r="R38" s="15"/>
+      <c r="R38" s="17"/>
       <c r="S38" s="2">
         <v>1000</v>
       </c>
@@ -816,12 +819,12 @@
         <v>3.5464940860376173E-2</v>
       </c>
       <c r="AB38" s="18"/>
-      <c r="AC38" s="20"/>
+      <c r="AC38" s="19"/>
       <c r="AD38" s="18"/>
     </row>
     <row r="39" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N39" s="2"/>
-      <c r="R39" s="15"/>
+      <c r="R39" s="17"/>
       <c r="S39" s="2">
         <v>2000</v>
       </c>
@@ -842,12 +845,12 @@
         <v>3.305335165909961E-2</v>
       </c>
       <c r="AB39" s="18"/>
-      <c r="AC39" s="20"/>
+      <c r="AC39" s="19"/>
       <c r="AD39" s="18"/>
     </row>
     <row r="40" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N40" s="2"/>
-      <c r="R40" s="15" t="s">
+      <c r="R40" s="17" t="s">
         <v>6</v>
       </c>
       <c r="S40" s="2">
@@ -881,7 +884,7 @@
     </row>
     <row r="41" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N41" s="2"/>
-      <c r="R41" s="15"/>
+      <c r="R41" s="17"/>
       <c r="S41" s="2">
         <v>1000</v>
       </c>
@@ -907,7 +910,7 @@
     </row>
     <row r="42" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N42" s="2"/>
-      <c r="R42" s="15"/>
+      <c r="R42" s="17"/>
       <c r="S42" s="2">
         <v>2000</v>
       </c>
@@ -933,7 +936,7 @@
     </row>
     <row r="43" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N43" s="2"/>
-      <c r="R43" s="15" t="s">
+      <c r="R43" s="17" t="s">
         <v>8</v>
       </c>
       <c r="S43" s="2">
@@ -967,7 +970,7 @@
     </row>
     <row r="44" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N44" s="2"/>
-      <c r="R44" s="15"/>
+      <c r="R44" s="17"/>
       <c r="S44" s="2">
         <v>1000</v>
       </c>
@@ -993,7 +996,7 @@
     </row>
     <row r="45" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N45" s="2"/>
-      <c r="R45" s="15"/>
+      <c r="R45" s="17"/>
       <c r="S45" s="2">
         <v>2000</v>
       </c>
@@ -1019,7 +1022,7 @@
     </row>
     <row r="46" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N46" s="2"/>
-      <c r="R46" s="15" t="s">
+      <c r="R46" s="17" t="s">
         <v>9</v>
       </c>
       <c r="S46" s="2">
@@ -1053,7 +1056,7 @@
     </row>
     <row r="47" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N47" s="2"/>
-      <c r="R47" s="15"/>
+      <c r="R47" s="17"/>
       <c r="S47" s="2">
         <v>1000</v>
       </c>
@@ -1079,7 +1082,7 @@
     </row>
     <row r="48" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N48" s="2"/>
-      <c r="R48" s="15"/>
+      <c r="R48" s="17"/>
       <c r="S48" s="2">
         <v>2000</v>
       </c>
@@ -1105,7 +1108,7 @@
     </row>
     <row r="49" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N49" s="2"/>
-      <c r="R49" s="15" t="s">
+      <c r="R49" s="17" t="s">
         <v>10</v>
       </c>
       <c r="S49" s="2">
@@ -1139,7 +1142,7 @@
     </row>
     <row r="50" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N50" s="2"/>
-      <c r="R50" s="15"/>
+      <c r="R50" s="17"/>
       <c r="S50" s="2">
         <v>1000</v>
       </c>
@@ -1165,7 +1168,7 @@
     </row>
     <row r="51" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N51" s="2"/>
-      <c r="R51" s="15"/>
+      <c r="R51" s="17"/>
       <c r="S51" s="2">
         <v>2000</v>
       </c>
@@ -1191,7 +1194,7 @@
     </row>
     <row r="52" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N52" s="2"/>
-      <c r="R52" s="15" t="s">
+      <c r="R52" s="17" t="s">
         <v>11</v>
       </c>
       <c r="S52" s="2">
@@ -1224,7 +1227,7 @@
       </c>
     </row>
     <row r="53" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R53" s="15"/>
+      <c r="R53" s="17"/>
       <c r="S53" s="2">
         <v>1000</v>
       </c>
@@ -1249,7 +1252,7 @@
       <c r="AD53" s="18"/>
     </row>
     <row r="54" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R54" s="15"/>
+      <c r="R54" s="17"/>
       <c r="S54" s="2">
         <v>2000</v>
       </c>
@@ -1274,7 +1277,7 @@
       <c r="AD54" s="18"/>
     </row>
     <row r="55" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R55" s="15" t="s">
+      <c r="R55" s="17" t="s">
         <v>12</v>
       </c>
       <c r="S55" s="2">
@@ -1307,7 +1310,7 @@
       </c>
     </row>
     <row r="56" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R56" s="15"/>
+      <c r="R56" s="17"/>
       <c r="S56" s="2">
         <v>1000</v>
       </c>
@@ -1332,7 +1335,7 @@
       <c r="AD56" s="18"/>
     </row>
     <row r="57" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R57" s="15"/>
+      <c r="R57" s="17"/>
       <c r="S57" s="2">
         <v>2000</v>
       </c>
@@ -1357,7 +1360,7 @@
       <c r="AD57" s="18"/>
     </row>
     <row r="58" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R58" s="15" t="s">
+      <c r="R58" s="17" t="s">
         <v>13</v>
       </c>
       <c r="S58" s="2">
@@ -1390,7 +1393,7 @@
       </c>
     </row>
     <row r="59" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R59" s="15"/>
+      <c r="R59" s="17"/>
       <c r="S59" s="2">
         <v>1000</v>
       </c>
@@ -1415,7 +1418,7 @@
       <c r="AD59" s="18"/>
     </row>
     <row r="60" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R60" s="15"/>
+      <c r="R60" s="17"/>
       <c r="S60" s="2">
         <v>2000</v>
       </c>
@@ -1440,7 +1443,7 @@
       <c r="AD60" s="18"/>
     </row>
     <row r="61" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R61" s="15" t="s">
+      <c r="R61" s="17" t="s">
         <v>14</v>
       </c>
       <c r="S61" s="2">
@@ -1473,7 +1476,7 @@
       </c>
     </row>
     <row r="62" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R62" s="15"/>
+      <c r="R62" s="17"/>
       <c r="S62" s="2">
         <v>1000</v>
       </c>
@@ -1498,14 +1501,16 @@
       <c r="AD62" s="18"/>
     </row>
     <row r="63" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R63" s="15"/>
+      <c r="R63" s="17"/>
       <c r="S63" s="2">
         <v>2000</v>
       </c>
       <c r="T63" s="10">
         <v>4.2468056823099502E-2</v>
       </c>
-      <c r="U63" s="10"/>
+      <c r="U63" s="10">
+        <v>4.6589452621796999E-2</v>
+      </c>
       <c r="V63" s="10"/>
       <c r="W63" s="10"/>
       <c r="X63" s="10"/>
@@ -1521,41 +1526,41 @@
       <c r="AD63" s="18"/>
     </row>
     <row r="66" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R66" s="15" t="s">
+      <c r="R66" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="S66" s="15"/>
-      <c r="T66" s="16" t="s">
+      <c r="S66" s="17"/>
+      <c r="T66" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="U66" s="16"/>
-      <c r="V66" s="16" t="s">
+      <c r="U66" s="21"/>
+      <c r="V66" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="W66" s="16"/>
-      <c r="X66" s="16" t="s">
+      <c r="W66" s="21"/>
+      <c r="X66" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="Y66" s="16"/>
-      <c r="Z66" s="15" t="s">
+      <c r="Y66" s="21"/>
+      <c r="Z66" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="AA66" s="15" t="s">
+      <c r="AA66" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="AB66" s="15" t="s">
+      <c r="AB66" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="AC66" s="15" t="s">
+      <c r="AC66" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="AD66" s="15" t="s">
+      <c r="AD66" s="17" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="67" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R67" s="15"/>
-      <c r="S67" s="15"/>
+      <c r="R67" s="17"/>
+      <c r="S67" s="17"/>
       <c r="T67" s="12" t="s">
         <v>5</v>
       </c>
@@ -1574,14 +1579,14 @@
       <c r="Y67" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Z67" s="15"/>
-      <c r="AA67" s="15"/>
-      <c r="AB67" s="15"/>
-      <c r="AC67" s="15"/>
-      <c r="AD67" s="15"/>
+      <c r="Z67" s="17"/>
+      <c r="AA67" s="17"/>
+      <c r="AB67" s="17"/>
+      <c r="AC67" s="17"/>
+      <c r="AD67" s="17"/>
     </row>
     <row r="68" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R68" s="15" t="s">
+      <c r="R68" s="17" t="s">
         <v>4</v>
       </c>
       <c r="S68" s="2">
@@ -1603,18 +1608,18 @@
       <c r="AA68" s="11">
         <v>23.031238255500789</v>
       </c>
-      <c r="AB68" s="19">
+      <c r="AB68" s="16">
         <v>0.17649999999999999</v>
       </c>
-      <c r="AC68" s="15" t="s">
+      <c r="AC68" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AD68" s="15" t="s">
+      <c r="AD68" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="69" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R69" s="15"/>
+      <c r="R69" s="17"/>
       <c r="S69" s="2">
         <v>1000</v>
       </c>
@@ -1634,12 +1639,12 @@
       <c r="AA69" s="11">
         <v>45.989559793472289</v>
       </c>
-      <c r="AB69" s="19"/>
-      <c r="AC69" s="15"/>
-      <c r="AD69" s="15"/>
+      <c r="AB69" s="16"/>
+      <c r="AC69" s="17"/>
+      <c r="AD69" s="17"/>
     </row>
     <row r="70" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R70" s="15"/>
+      <c r="R70" s="17"/>
       <c r="S70" s="2">
         <v>2000</v>
       </c>
@@ -1659,12 +1664,12 @@
       <c r="AA70" s="11">
         <v>91.03469082593918</v>
       </c>
-      <c r="AB70" s="19"/>
-      <c r="AC70" s="15"/>
-      <c r="AD70" s="15"/>
+      <c r="AB70" s="16"/>
+      <c r="AC70" s="17"/>
+      <c r="AD70" s="17"/>
     </row>
     <row r="71" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R71" s="15" t="s">
+      <c r="R71" s="17" t="s">
         <v>6</v>
       </c>
       <c r="S71" s="2">
@@ -1686,18 +1691,18 @@
       <c r="AA71" s="11">
         <v>45.614059638977047</v>
       </c>
-      <c r="AB71" s="19">
+      <c r="AB71" s="16">
         <v>0.4471</v>
       </c>
-      <c r="AC71" s="15" t="s">
+      <c r="AC71" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AD71" s="15" t="s">
+      <c r="AD71" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="72" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R72" s="15"/>
+      <c r="R72" s="17"/>
       <c r="S72" s="2">
         <v>1000</v>
       </c>
@@ -1717,12 +1722,12 @@
       <c r="AA72" s="11">
         <v>94.371467232704163</v>
       </c>
-      <c r="AB72" s="19"/>
-      <c r="AC72" s="15"/>
-      <c r="AD72" s="15"/>
+      <c r="AB72" s="16"/>
+      <c r="AC72" s="17"/>
+      <c r="AD72" s="17"/>
     </row>
     <row r="73" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R73" s="15"/>
+      <c r="R73" s="17"/>
       <c r="S73" s="2">
         <v>2000</v>
       </c>
@@ -1742,12 +1747,12 @@
       <c r="AA73" s="11">
         <v>181.21347374916081</v>
       </c>
-      <c r="AB73" s="19"/>
-      <c r="AC73" s="15"/>
-      <c r="AD73" s="15"/>
+      <c r="AB73" s="16"/>
+      <c r="AC73" s="17"/>
+      <c r="AD73" s="17"/>
     </row>
     <row r="74" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R74" s="15" t="s">
+      <c r="R74" s="17" t="s">
         <v>8</v>
       </c>
       <c r="S74" s="2">
@@ -1769,18 +1774,18 @@
       <c r="AA74" s="11">
         <v>56.951492929458617</v>
       </c>
-      <c r="AB74" s="19">
+      <c r="AB74" s="16">
         <v>0.624</v>
       </c>
-      <c r="AC74" s="15" t="s">
+      <c r="AC74" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AD74" s="15" t="s">
+      <c r="AD74" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="75" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R75" s="15"/>
+      <c r="R75" s="17"/>
       <c r="S75" s="2">
         <v>1000</v>
       </c>
@@ -1800,12 +1805,12 @@
       <c r="AA75" s="11">
         <v>108.1727962255478</v>
       </c>
-      <c r="AB75" s="19"/>
-      <c r="AC75" s="15"/>
-      <c r="AD75" s="15"/>
+      <c r="AB75" s="16"/>
+      <c r="AC75" s="17"/>
+      <c r="AD75" s="17"/>
     </row>
     <row r="76" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R76" s="15"/>
+      <c r="R76" s="17"/>
       <c r="S76" s="2">
         <v>2000</v>
       </c>
@@ -1825,12 +1830,12 @@
       <c r="AA76" s="11">
         <v>220.99487323760991</v>
       </c>
-      <c r="AB76" s="19"/>
-      <c r="AC76" s="15"/>
-      <c r="AD76" s="15"/>
+      <c r="AB76" s="16"/>
+      <c r="AC76" s="17"/>
+      <c r="AD76" s="17"/>
     </row>
     <row r="77" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R77" s="15" t="s">
+      <c r="R77" s="17" t="s">
         <v>9</v>
       </c>
       <c r="S77" s="2">
@@ -1852,18 +1857,18 @@
       <c r="AA77" s="11">
         <v>85.806196355819708</v>
       </c>
-      <c r="AB77" s="19">
+      <c r="AB77" s="16">
         <v>0.93700000000000006</v>
       </c>
-      <c r="AC77" s="15" t="s">
+      <c r="AC77" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AD77" s="15" t="s">
+      <c r="AD77" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="78" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R78" s="15"/>
+      <c r="R78" s="17"/>
       <c r="S78" s="2">
         <v>1000</v>
       </c>
@@ -1883,12 +1888,12 @@
       <c r="AA78" s="11">
         <v>166.8294932126999</v>
       </c>
-      <c r="AB78" s="19"/>
-      <c r="AC78" s="15"/>
-      <c r="AD78" s="15"/>
+      <c r="AB78" s="16"/>
+      <c r="AC78" s="17"/>
+      <c r="AD78" s="17"/>
     </row>
     <row r="79" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R79" s="15"/>
+      <c r="R79" s="17"/>
       <c r="S79" s="2">
         <v>2000</v>
       </c>
@@ -1908,12 +1913,12 @@
       <c r="AA79" s="11">
         <v>335.19313392639162</v>
       </c>
-      <c r="AB79" s="19"/>
-      <c r="AC79" s="15"/>
-      <c r="AD79" s="15"/>
+      <c r="AB79" s="16"/>
+      <c r="AC79" s="17"/>
+      <c r="AD79" s="17"/>
     </row>
     <row r="80" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R80" s="15" t="s">
+      <c r="R80" s="17" t="s">
         <v>10</v>
       </c>
       <c r="S80" s="2">
@@ -1935,18 +1940,18 @@
       <c r="AA80" s="11">
         <v>77.7067616224289</v>
       </c>
-      <c r="AB80" s="19">
+      <c r="AB80" s="16">
         <v>1.1140000000000001</v>
       </c>
-      <c r="AC80" s="15" t="s">
+      <c r="AC80" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AD80" s="15" t="s">
+      <c r="AD80" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="81" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R81" s="15"/>
+      <c r="R81" s="17"/>
       <c r="S81" s="2">
         <v>1000</v>
       </c>
@@ -1966,12 +1971,12 @@
       <c r="AA81" s="11">
         <v>151.92343058586121</v>
       </c>
-      <c r="AB81" s="19"/>
-      <c r="AC81" s="15"/>
-      <c r="AD81" s="15"/>
+      <c r="AB81" s="16"/>
+      <c r="AC81" s="17"/>
+      <c r="AD81" s="17"/>
     </row>
     <row r="82" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R82" s="15"/>
+      <c r="R82" s="17"/>
       <c r="S82" s="2">
         <v>2000</v>
       </c>
@@ -1991,12 +1996,12 @@
       <c r="AA82" s="11">
         <v>311.46112883090967</v>
       </c>
-      <c r="AB82" s="19"/>
-      <c r="AC82" s="15"/>
-      <c r="AD82" s="15"/>
+      <c r="AB82" s="16"/>
+      <c r="AC82" s="17"/>
+      <c r="AD82" s="17"/>
     </row>
     <row r="83" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R83" s="15" t="s">
+      <c r="R83" s="17" t="s">
         <v>11</v>
       </c>
       <c r="S83" s="2">
@@ -2018,18 +2023,18 @@
       <c r="AA83" s="8">
         <v>119.97</v>
       </c>
-      <c r="AB83" s="19">
+      <c r="AB83" s="16">
         <v>1.7989999999999999</v>
       </c>
-      <c r="AC83" s="15" t="s">
+      <c r="AC83" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AD83" s="15" t="s">
+      <c r="AD83" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="84" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R84" s="15"/>
+      <c r="R84" s="17"/>
       <c r="S84" s="2">
         <v>1000</v>
       </c>
@@ -2049,12 +2054,12 @@
       <c r="AA84" s="8">
         <v>239.208</v>
       </c>
-      <c r="AB84" s="19"/>
-      <c r="AC84" s="15"/>
-      <c r="AD84" s="15"/>
+      <c r="AB84" s="16"/>
+      <c r="AC84" s="17"/>
+      <c r="AD84" s="17"/>
     </row>
     <row r="85" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R85" s="15"/>
+      <c r="R85" s="17"/>
       <c r="S85" s="2">
         <v>2000</v>
       </c>
@@ -2074,12 +2079,12 @@
       <c r="AA85" s="8">
         <v>459.27699999999999</v>
       </c>
-      <c r="AB85" s="19"/>
-      <c r="AC85" s="15"/>
-      <c r="AD85" s="15"/>
+      <c r="AB85" s="16"/>
+      <c r="AC85" s="17"/>
+      <c r="AD85" s="17"/>
     </row>
     <row r="86" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R86" s="15" t="s">
+      <c r="R86" s="17" t="s">
         <v>12</v>
       </c>
       <c r="S86" s="2">
@@ -2101,18 +2106,18 @@
       <c r="AA86" s="8">
         <v>112.211</v>
       </c>
-      <c r="AB86" s="19">
+      <c r="AB86" s="16">
         <v>2.6960000000000002</v>
       </c>
-      <c r="AC86" s="15" t="s">
+      <c r="AC86" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AD86" s="15" t="s">
+      <c r="AD86" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="87" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R87" s="15"/>
+      <c r="R87" s="17"/>
       <c r="S87" s="2">
         <v>1000</v>
       </c>
@@ -2132,12 +2137,12 @@
       <c r="AA87" s="8">
         <v>217.464</v>
       </c>
-      <c r="AB87" s="19"/>
-      <c r="AC87" s="15"/>
-      <c r="AD87" s="15"/>
+      <c r="AB87" s="16"/>
+      <c r="AC87" s="17"/>
+      <c r="AD87" s="17"/>
     </row>
     <row r="88" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R88" s="15"/>
+      <c r="R88" s="17"/>
       <c r="S88" s="2">
         <v>2000</v>
       </c>
@@ -2157,12 +2162,12 @@
       <c r="AA88" s="8">
         <v>605.226</v>
       </c>
-      <c r="AB88" s="19"/>
-      <c r="AC88" s="15"/>
-      <c r="AD88" s="15"/>
+      <c r="AB88" s="16"/>
+      <c r="AC88" s="17"/>
+      <c r="AD88" s="17"/>
     </row>
     <row r="89" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R89" s="15" t="s">
+      <c r="R89" s="17" t="s">
         <v>13</v>
       </c>
       <c r="S89" s="2">
@@ -2184,18 +2189,18 @@
       <c r="AA89" s="11">
         <v>280.24865968227391</v>
       </c>
-      <c r="AB89" s="19">
+      <c r="AB89" s="16">
         <v>4.883</v>
       </c>
-      <c r="AC89" s="15" t="s">
+      <c r="AC89" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AD89" s="15" t="s">
+      <c r="AD89" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="90" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R90" s="15"/>
+      <c r="R90" s="17"/>
       <c r="S90" s="2">
         <v>1000</v>
       </c>
@@ -2215,12 +2220,12 @@
       <c r="AA90" s="11">
         <v>567.21448349952698</v>
       </c>
-      <c r="AB90" s="19"/>
-      <c r="AC90" s="15"/>
-      <c r="AD90" s="15"/>
+      <c r="AB90" s="16"/>
+      <c r="AC90" s="17"/>
+      <c r="AD90" s="17"/>
     </row>
     <row r="91" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R91" s="15"/>
+      <c r="R91" s="17"/>
       <c r="S91" s="2">
         <v>2000</v>
       </c>
@@ -2240,12 +2245,12 @@
       <c r="AA91" s="11">
         <v>1013.222328734398</v>
       </c>
-      <c r="AB91" s="19"/>
-      <c r="AC91" s="15"/>
-      <c r="AD91" s="15"/>
+      <c r="AB91" s="16"/>
+      <c r="AC91" s="17"/>
+      <c r="AD91" s="17"/>
     </row>
     <row r="92" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R92" s="15" t="s">
+      <c r="R92" s="17" t="s">
         <v>14</v>
       </c>
       <c r="S92" s="2">
@@ -2267,18 +2272,18 @@
       <c r="AA92" s="8">
         <v>356.411</v>
       </c>
-      <c r="AB92" s="19">
+      <c r="AB92" s="16">
         <v>28.327999999999999</v>
       </c>
-      <c r="AC92" s="15" t="s">
+      <c r="AC92" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="AD92" s="15" t="s">
+      <c r="AD92" s="17" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="93" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R93" s="15"/>
+      <c r="R93" s="17"/>
       <c r="S93" s="2">
         <v>1000</v>
       </c>
@@ -2298,19 +2303,21 @@
       <c r="AA93" s="8">
         <v>940.48</v>
       </c>
-      <c r="AB93" s="19"/>
-      <c r="AC93" s="15"/>
-      <c r="AD93" s="15"/>
+      <c r="AB93" s="16"/>
+      <c r="AC93" s="17"/>
+      <c r="AD93" s="17"/>
     </row>
     <row r="94" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R94" s="15"/>
+      <c r="R94" s="17"/>
       <c r="S94" s="2">
         <v>2000</v>
       </c>
       <c r="T94" s="13">
         <v>114.1955</v>
       </c>
-      <c r="U94" s="8"/>
+      <c r="U94" s="15">
+        <v>114.1952</v>
+      </c>
       <c r="V94" s="8"/>
       <c r="W94" s="8"/>
       <c r="X94" s="8"/>
@@ -2321,9 +2328,9 @@
       <c r="AA94" s="8">
         <v>1807.9839999999999</v>
       </c>
-      <c r="AB94" s="19"/>
-      <c r="AC94" s="15"/>
-      <c r="AD94" s="15"/>
+      <c r="AB94" s="16"/>
+      <c r="AC94" s="17"/>
+      <c r="AD94" s="17"/>
     </row>
     <row r="111" spans="20:27" x14ac:dyDescent="0.25">
       <c r="T111" s="7"/>
@@ -2367,35 +2374,51 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="AB89:AB91"/>
-    <mergeCell ref="AC89:AC91"/>
-    <mergeCell ref="AD89:AD91"/>
-    <mergeCell ref="AB92:AB94"/>
-    <mergeCell ref="AC92:AC94"/>
-    <mergeCell ref="AD92:AD94"/>
-    <mergeCell ref="AB83:AB85"/>
-    <mergeCell ref="AC83:AC85"/>
-    <mergeCell ref="AD83:AD85"/>
-    <mergeCell ref="AB86:AB88"/>
-    <mergeCell ref="AC86:AC88"/>
-    <mergeCell ref="AD86:AD88"/>
-    <mergeCell ref="AC77:AC79"/>
-    <mergeCell ref="AD77:AD79"/>
-    <mergeCell ref="AB80:AB82"/>
-    <mergeCell ref="AC80:AC82"/>
-    <mergeCell ref="AD80:AD82"/>
-    <mergeCell ref="AB68:AB70"/>
-    <mergeCell ref="AC68:AC70"/>
-    <mergeCell ref="AD68:AD70"/>
-    <mergeCell ref="AB71:AB73"/>
-    <mergeCell ref="AC71:AC73"/>
-    <mergeCell ref="AD71:AD73"/>
-    <mergeCell ref="AD55:AD57"/>
-    <mergeCell ref="AD58:AD60"/>
-    <mergeCell ref="AC49:AC51"/>
-    <mergeCell ref="AC52:AC54"/>
-    <mergeCell ref="AD61:AD63"/>
-    <mergeCell ref="AC61:AC63"/>
+    <mergeCell ref="R52:R54"/>
+    <mergeCell ref="R55:R57"/>
+    <mergeCell ref="R58:R60"/>
+    <mergeCell ref="R61:R63"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="R37:R39"/>
+    <mergeCell ref="R40:R42"/>
+    <mergeCell ref="R43:R45"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="X35:Y35"/>
+    <mergeCell ref="R35:S36"/>
+    <mergeCell ref="R46:R48"/>
+    <mergeCell ref="R49:R51"/>
+    <mergeCell ref="AB43:AB45"/>
+    <mergeCell ref="AB46:AB48"/>
+    <mergeCell ref="AD35:AD36"/>
+    <mergeCell ref="R66:S67"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="Z66:Z67"/>
+    <mergeCell ref="AA66:AA67"/>
+    <mergeCell ref="Z35:Z36"/>
+    <mergeCell ref="AA35:AA36"/>
+    <mergeCell ref="AB35:AB36"/>
+    <mergeCell ref="AC35:AC36"/>
+    <mergeCell ref="AB37:AB39"/>
+    <mergeCell ref="AB40:AB42"/>
+    <mergeCell ref="AB49:AB51"/>
+    <mergeCell ref="R92:R94"/>
+    <mergeCell ref="AB66:AB67"/>
+    <mergeCell ref="AC66:AC67"/>
+    <mergeCell ref="AD66:AD67"/>
+    <mergeCell ref="R68:R70"/>
+    <mergeCell ref="R71:R73"/>
+    <mergeCell ref="R74:R76"/>
+    <mergeCell ref="AB74:AB76"/>
+    <mergeCell ref="AC74:AC76"/>
+    <mergeCell ref="AD74:AD76"/>
+    <mergeCell ref="R77:R79"/>
+    <mergeCell ref="R80:R82"/>
+    <mergeCell ref="R83:R85"/>
+    <mergeCell ref="R86:R88"/>
+    <mergeCell ref="R89:R91"/>
+    <mergeCell ref="AB77:AB79"/>
     <mergeCell ref="AB52:AB54"/>
     <mergeCell ref="AB55:AB57"/>
     <mergeCell ref="AB58:AB60"/>
@@ -2412,51 +2435,35 @@
     <mergeCell ref="AC55:AC57"/>
     <mergeCell ref="AD52:AD54"/>
     <mergeCell ref="AC58:AC60"/>
-    <mergeCell ref="R92:R94"/>
-    <mergeCell ref="AB66:AB67"/>
-    <mergeCell ref="AC66:AC67"/>
-    <mergeCell ref="AD66:AD67"/>
-    <mergeCell ref="R68:R70"/>
-    <mergeCell ref="R71:R73"/>
-    <mergeCell ref="R74:R76"/>
-    <mergeCell ref="AB74:AB76"/>
-    <mergeCell ref="AC74:AC76"/>
-    <mergeCell ref="AD74:AD76"/>
-    <mergeCell ref="R77:R79"/>
-    <mergeCell ref="R80:R82"/>
-    <mergeCell ref="R83:R85"/>
-    <mergeCell ref="R86:R88"/>
-    <mergeCell ref="R89:R91"/>
-    <mergeCell ref="AB77:AB79"/>
-    <mergeCell ref="AB43:AB45"/>
-    <mergeCell ref="AB46:AB48"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="R66:S67"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="Z66:Z67"/>
-    <mergeCell ref="AA66:AA67"/>
-    <mergeCell ref="Z35:Z36"/>
-    <mergeCell ref="AA35:AA36"/>
-    <mergeCell ref="AB35:AB36"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AB37:AB39"/>
-    <mergeCell ref="AB40:AB42"/>
-    <mergeCell ref="AB49:AB51"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="R35:S36"/>
-    <mergeCell ref="R46:R48"/>
-    <mergeCell ref="R49:R51"/>
-    <mergeCell ref="R52:R54"/>
-    <mergeCell ref="R55:R57"/>
-    <mergeCell ref="R58:R60"/>
-    <mergeCell ref="R61:R63"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="R37:R39"/>
-    <mergeCell ref="R40:R42"/>
-    <mergeCell ref="R43:R45"/>
+    <mergeCell ref="AD55:AD57"/>
+    <mergeCell ref="AD58:AD60"/>
+    <mergeCell ref="AC49:AC51"/>
+    <mergeCell ref="AC52:AC54"/>
+    <mergeCell ref="AD61:AD63"/>
+    <mergeCell ref="AC61:AC63"/>
+    <mergeCell ref="AB68:AB70"/>
+    <mergeCell ref="AC68:AC70"/>
+    <mergeCell ref="AD68:AD70"/>
+    <mergeCell ref="AB71:AB73"/>
+    <mergeCell ref="AC71:AC73"/>
+    <mergeCell ref="AD71:AD73"/>
+    <mergeCell ref="AC77:AC79"/>
+    <mergeCell ref="AD77:AD79"/>
+    <mergeCell ref="AB80:AB82"/>
+    <mergeCell ref="AC80:AC82"/>
+    <mergeCell ref="AD80:AD82"/>
+    <mergeCell ref="AB83:AB85"/>
+    <mergeCell ref="AC83:AC85"/>
+    <mergeCell ref="AD83:AD85"/>
+    <mergeCell ref="AB86:AB88"/>
+    <mergeCell ref="AC86:AC88"/>
+    <mergeCell ref="AD86:AD88"/>
+    <mergeCell ref="AB89:AB91"/>
+    <mergeCell ref="AC89:AC91"/>
+    <mergeCell ref="AD89:AD91"/>
+    <mergeCell ref="AB92:AB94"/>
+    <mergeCell ref="AC92:AC94"/>
+    <mergeCell ref="AD92:AD94"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/testing_results/results.xlsx
+++ b/testing_results/results.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\reinforce_debug\testing_results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CONG030\Desktop\reinforce_debug\testing_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8D250B-AE7C-41A4-B4AA-893A0C1F6465}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8565" yWindow="2805" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8565" yWindow="2805" windowWidth="28800" windowHeight="15435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -97,12 +96,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="167" formatCode="0.000%"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -139,7 +138,7 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="22">
@@ -157,59 +156,59 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="百分比" xfId="2" builtinId="5"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -486,11 +485,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="M18:AD116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R61" workbookViewId="0">
-      <selection activeCell="U94" sqref="U94"/>
+    <sheetView tabSelected="1" topLeftCell="R38" workbookViewId="0">
+      <selection activeCell="R38" sqref="R38:AD97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -705,1634 +704,1634 @@
       <c r="N30" s="4"/>
       <c r="O30" s="4"/>
     </row>
-    <row r="35" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R35" s="20"/>
-      <c r="S35" s="17"/>
-      <c r="T35" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="U35" s="21"/>
-      <c r="V35" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="W35" s="21"/>
-      <c r="X35" s="21" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y35" s="21"/>
-      <c r="Z35" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="AA35" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB35" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC35" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD35" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="U36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="V36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="W36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="X36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="Y36" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z36" s="17"/>
-      <c r="AA36" s="17"/>
-      <c r="AB36" s="17"/>
-      <c r="AC36" s="17"/>
-      <c r="AD36" s="17"/>
-    </row>
-    <row r="37" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R37" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="S37" s="2">
-        <v>500</v>
-      </c>
-      <c r="T37" s="10">
-        <v>4.9038586604487899E-2</v>
-      </c>
-      <c r="U37" s="10">
-        <v>5.1602158853347499E-2</v>
-      </c>
-      <c r="V37" s="10"/>
-      <c r="W37" s="10"/>
-      <c r="X37" s="10"/>
-      <c r="Y37" s="10"/>
-      <c r="Z37" s="10">
-        <v>6.5116596070135105E-2</v>
-      </c>
-      <c r="AA37" s="10">
-        <v>4.131192202196405E-2</v>
-      </c>
-      <c r="AB37" s="18">
-        <v>0.22309999999999999</v>
-      </c>
-      <c r="AC37" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD37" s="18" t="s">
-        <v>17</v>
-      </c>
-    </row>
     <row r="38" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N38" s="2"/>
-      <c r="R38" s="17"/>
-      <c r="S38" s="2">
-        <v>1000</v>
-      </c>
-      <c r="T38" s="10">
-        <v>4.1875581816872898E-2</v>
-      </c>
-      <c r="U38" s="10">
-        <v>4.1934902631354798E-2</v>
-      </c>
-      <c r="V38" s="10"/>
-      <c r="W38" s="10"/>
-      <c r="X38" s="10"/>
-      <c r="Y38" s="10"/>
-      <c r="Z38" s="10">
-        <v>5.4864685829470551E-2</v>
-      </c>
-      <c r="AA38" s="10">
-        <v>3.5464940860376173E-2</v>
-      </c>
-      <c r="AB38" s="18"/>
-      <c r="AC38" s="19"/>
-      <c r="AD38" s="18"/>
+      <c r="R38" s="18"/>
+      <c r="S38" s="16"/>
+      <c r="T38" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="U38" s="17"/>
+      <c r="V38" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="W38" s="17"/>
+      <c r="X38" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y38" s="17"/>
+      <c r="Z38" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="AC38" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD38" s="18" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="39" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N39" s="2"/>
-      <c r="R39" s="17"/>
-      <c r="S39" s="2">
-        <v>2000</v>
-      </c>
-      <c r="T39" s="10">
-        <v>3.3312998149671501E-2</v>
-      </c>
-      <c r="U39" s="10">
-        <v>3.5703199144383801E-2</v>
-      </c>
-      <c r="V39" s="10"/>
-      <c r="W39" s="10"/>
-      <c r="X39" s="10"/>
-      <c r="Y39" s="10"/>
-      <c r="Z39" s="10">
-        <v>4.7706422829742218E-2</v>
-      </c>
-      <c r="AA39" s="10">
-        <v>3.305335165909961E-2</v>
-      </c>
-      <c r="AB39" s="18"/>
-      <c r="AC39" s="19"/>
-      <c r="AD39" s="18"/>
+      <c r="R39" s="16"/>
+      <c r="S39" s="16"/>
+      <c r="T39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="W39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y39" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z39" s="16"/>
+      <c r="AA39" s="16"/>
+      <c r="AB39" s="16"/>
+      <c r="AC39" s="16"/>
+      <c r="AD39" s="16"/>
     </row>
     <row r="40" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N40" s="2"/>
-      <c r="R40" s="17" t="s">
-        <v>6</v>
+      <c r="R40" s="16" t="s">
+        <v>4</v>
       </c>
       <c r="S40" s="2">
         <v>500</v>
       </c>
       <c r="T40" s="10">
-        <v>0.109218919248196</v>
+        <v>4.9038586604487899E-2</v>
       </c>
       <c r="U40" s="10">
-        <v>0.11103490432284099</v>
+        <v>5.1602158853347499E-2</v>
       </c>
       <c r="V40" s="10"/>
       <c r="W40" s="10"/>
       <c r="X40" s="10"/>
       <c r="Y40" s="10"/>
       <c r="Z40" s="10">
-        <v>0.13688711602378539</v>
+        <v>6.5116596070135105E-2</v>
       </c>
       <c r="AA40" s="10">
-        <v>7.5060378575190295E-2</v>
-      </c>
-      <c r="AB40" s="18">
-        <v>0.2601</v>
-      </c>
-      <c r="AC40" s="18">
-        <v>0.153</v>
-      </c>
-      <c r="AD40" s="18">
-        <v>0.17100000000000001</v>
+        <v>4.131192202196405E-2</v>
+      </c>
+      <c r="AB40" s="19">
+        <v>0.22309999999999999</v>
+      </c>
+      <c r="AC40" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD40" s="19" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N41" s="2"/>
-      <c r="R41" s="17"/>
+      <c r="R41" s="16"/>
       <c r="S41" s="2">
         <v>1000</v>
       </c>
       <c r="T41" s="10">
-        <v>9.1049779970612199E-2</v>
+        <v>4.1875581816872898E-2</v>
       </c>
       <c r="U41" s="10">
-        <v>9.5525494738869607E-2</v>
+        <v>4.1934902631354798E-2</v>
       </c>
       <c r="V41" s="10"/>
       <c r="W41" s="10"/>
       <c r="X41" s="10"/>
       <c r="Y41" s="10"/>
       <c r="Z41" s="10">
-        <v>0.1239270127592192</v>
+        <v>5.4864685829470551E-2</v>
       </c>
       <c r="AA41" s="10">
-        <v>6.2918757652814239E-2</v>
-      </c>
-      <c r="AB41" s="18"/>
-      <c r="AC41" s="18"/>
-      <c r="AD41" s="18"/>
+        <v>3.5464940860376173E-2</v>
+      </c>
+      <c r="AB41" s="19"/>
+      <c r="AC41" s="21"/>
+      <c r="AD41" s="19"/>
     </row>
     <row r="42" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N42" s="2"/>
-      <c r="R42" s="17"/>
+      <c r="R42" s="16"/>
       <c r="S42" s="2">
         <v>2000</v>
       </c>
       <c r="T42" s="10">
-        <v>7.8611999373717503E-2</v>
+        <v>3.3312998149671501E-2</v>
       </c>
       <c r="U42" s="10">
-        <v>7.9455673340254496E-2</v>
+        <v>3.5703199144383801E-2</v>
       </c>
       <c r="V42" s="10"/>
       <c r="W42" s="10"/>
       <c r="X42" s="10"/>
       <c r="Y42" s="10"/>
       <c r="Z42" s="10">
-        <v>0.1050443467852758</v>
+        <v>4.7706422829742218E-2</v>
       </c>
       <c r="AA42" s="10">
-        <v>5.3326321728132453E-2</v>
-      </c>
-      <c r="AB42" s="18"/>
-      <c r="AC42" s="18"/>
-      <c r="AD42" s="18"/>
+        <v>3.305335165909961E-2</v>
+      </c>
+      <c r="AB42" s="19"/>
+      <c r="AC42" s="21"/>
+      <c r="AD42" s="19"/>
     </row>
     <row r="43" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N43" s="2"/>
-      <c r="R43" s="17" t="s">
-        <v>8</v>
+      <c r="R43" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="S43" s="2">
         <v>500</v>
       </c>
       <c r="T43" s="10">
-        <v>0.137603398265562</v>
+        <v>0.109218919248196</v>
       </c>
       <c r="U43" s="10">
-        <v>0.14636302066923701</v>
+        <v>0.11103490432284099</v>
       </c>
       <c r="V43" s="10"/>
       <c r="W43" s="10"/>
       <c r="X43" s="10"/>
       <c r="Y43" s="10"/>
       <c r="Z43" s="10">
-        <v>0.14166088738559399</v>
+        <v>0.13688711602378539</v>
       </c>
       <c r="AA43" s="10">
-        <v>9.5576566423238279E-2</v>
-      </c>
-      <c r="AB43" s="18">
-        <v>0.30220000000000002</v>
-      </c>
-      <c r="AC43" s="18">
-        <v>0.19400000000000001</v>
-      </c>
-      <c r="AD43" s="18">
-        <v>0.20200000000000001</v>
+        <v>7.5060378575190295E-2</v>
+      </c>
+      <c r="AB43" s="19">
+        <v>0.2601</v>
+      </c>
+      <c r="AC43" s="19">
+        <v>0.153</v>
+      </c>
+      <c r="AD43" s="19">
+        <v>0.17100000000000001</v>
       </c>
     </row>
     <row r="44" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N44" s="2"/>
-      <c r="R44" s="17"/>
+      <c r="R44" s="16"/>
       <c r="S44" s="2">
         <v>1000</v>
       </c>
       <c r="T44" s="10">
-        <v>0.12827040192768699</v>
+        <v>9.1049779970612199E-2</v>
       </c>
       <c r="U44" s="10">
-        <v>0.13380121561993899</v>
+        <v>9.5525494738869607E-2</v>
       </c>
       <c r="V44" s="10"/>
       <c r="W44" s="10"/>
       <c r="X44" s="10"/>
       <c r="Y44" s="10"/>
       <c r="Z44" s="10">
-        <v>0.13076665587687061</v>
+        <v>0.1239270127592192</v>
       </c>
       <c r="AA44" s="10">
-        <v>9.0800495453678173E-2</v>
-      </c>
-      <c r="AB44" s="18"/>
-      <c r="AC44" s="18"/>
-      <c r="AD44" s="18"/>
+        <v>6.2918757652814239E-2</v>
+      </c>
+      <c r="AB44" s="19"/>
+      <c r="AC44" s="19"/>
+      <c r="AD44" s="19"/>
     </row>
     <row r="45" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N45" s="2"/>
-      <c r="R45" s="17"/>
+      <c r="R45" s="16"/>
       <c r="S45" s="2">
         <v>2000</v>
       </c>
       <c r="T45" s="10">
-        <v>0.11439323821540601</v>
+        <v>7.8611999373717503E-2</v>
       </c>
       <c r="U45" s="10">
-        <v>0.11381935792360499</v>
+        <v>7.9455673340254496E-2</v>
       </c>
       <c r="V45" s="10"/>
       <c r="W45" s="10"/>
       <c r="X45" s="10"/>
       <c r="Y45" s="10"/>
       <c r="Z45" s="10">
-        <v>0.11610475192718191</v>
+        <v>0.1050443467852758</v>
       </c>
       <c r="AA45" s="10">
-        <v>8.0211340873238432E-2</v>
-      </c>
-      <c r="AB45" s="18"/>
-      <c r="AC45" s="18"/>
-      <c r="AD45" s="18"/>
+        <v>5.3326321728132453E-2</v>
+      </c>
+      <c r="AB45" s="19"/>
+      <c r="AC45" s="19"/>
+      <c r="AD45" s="19"/>
     </row>
     <row r="46" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N46" s="2"/>
-      <c r="R46" s="17" t="s">
-        <v>9</v>
+      <c r="R46" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="S46" s="2">
         <v>500</v>
       </c>
       <c r="T46" s="10">
-        <v>0.142070740265242</v>
+        <v>0.137603398265562</v>
       </c>
       <c r="U46" s="10">
-        <v>0.15380839107875599</v>
+        <v>0.14636302066923701</v>
       </c>
       <c r="V46" s="10"/>
       <c r="W46" s="10"/>
       <c r="X46" s="10"/>
       <c r="Y46" s="10"/>
       <c r="Z46" s="10">
-        <v>0.1598100151558659</v>
+        <v>0.14166088738559399</v>
       </c>
       <c r="AA46" s="10">
-        <v>9.5042090819800223E-2</v>
-      </c>
-      <c r="AB46" s="18">
-        <v>0.3165</v>
-      </c>
-      <c r="AC46" s="18">
-        <v>0.17199999999999999</v>
-      </c>
-      <c r="AD46" s="18">
-        <v>0.22800000000000001</v>
+        <v>9.5576566423238279E-2</v>
+      </c>
+      <c r="AB46" s="19">
+        <v>0.30220000000000002</v>
+      </c>
+      <c r="AC46" s="19">
+        <v>0.19400000000000001</v>
+      </c>
+      <c r="AD46" s="19">
+        <v>0.20200000000000001</v>
       </c>
     </row>
     <row r="47" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N47" s="2"/>
-      <c r="R47" s="17"/>
+      <c r="R47" s="16"/>
       <c r="S47" s="2">
         <v>1000</v>
       </c>
       <c r="T47" s="10">
-        <v>0.13357705975846099</v>
+        <v>0.12827040192768699</v>
       </c>
       <c r="U47" s="10">
-        <v>0.14701036610214799</v>
+        <v>0.13380121561993899</v>
       </c>
       <c r="V47" s="10"/>
       <c r="W47" s="10"/>
       <c r="X47" s="10"/>
       <c r="Y47" s="10"/>
       <c r="Z47" s="10">
-        <v>0.14760589447770911</v>
+        <v>0.13076665587687061</v>
       </c>
       <c r="AA47" s="10">
-        <v>8.1518245526609412E-2</v>
-      </c>
-      <c r="AB47" s="18"/>
-      <c r="AC47" s="18"/>
-      <c r="AD47" s="18"/>
+        <v>9.0800495453678173E-2</v>
+      </c>
+      <c r="AB47" s="19"/>
+      <c r="AC47" s="19"/>
+      <c r="AD47" s="19"/>
     </row>
     <row r="48" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N48" s="2"/>
-      <c r="R48" s="17"/>
+      <c r="R48" s="16"/>
       <c r="S48" s="2">
         <v>2000</v>
       </c>
       <c r="T48" s="10">
-        <v>0.122496716326478</v>
+        <v>0.11439323821540601</v>
       </c>
       <c r="U48" s="10">
-        <v>0.13687129197488801</v>
+        <v>0.11381935792360499</v>
       </c>
       <c r="V48" s="10"/>
       <c r="W48" s="10"/>
       <c r="X48" s="10"/>
       <c r="Y48" s="10"/>
       <c r="Z48" s="10">
-        <v>0.1427892837570599</v>
+        <v>0.11610475192718191</v>
       </c>
       <c r="AA48" s="10">
-        <v>7.9552882005758413E-2</v>
-      </c>
-      <c r="AB48" s="18"/>
-      <c r="AC48" s="18"/>
-      <c r="AD48" s="18"/>
+        <v>8.0211340873238432E-2</v>
+      </c>
+      <c r="AB48" s="19"/>
+      <c r="AC48" s="19"/>
+      <c r="AD48" s="19"/>
     </row>
     <row r="49" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N49" s="2"/>
-      <c r="R49" s="17" t="s">
-        <v>10</v>
+      <c r="R49" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="S49" s="2">
         <v>500</v>
       </c>
       <c r="T49" s="10">
-        <v>0.16082487412518701</v>
+        <v>0.142070740265242</v>
       </c>
       <c r="U49" s="10">
-        <v>0.17556699386677699</v>
+        <v>0.15380839107875599</v>
       </c>
       <c r="V49" s="10"/>
       <c r="W49" s="10"/>
       <c r="X49" s="10"/>
       <c r="Y49" s="10"/>
       <c r="Z49" s="10">
-        <v>0.16159056949776701</v>
+        <v>0.1598100151558659</v>
       </c>
       <c r="AA49" s="10">
-        <v>0.15015819804763289</v>
-      </c>
-      <c r="AB49" s="18">
-        <v>0.33110000000000001</v>
-      </c>
-      <c r="AC49" s="18">
-        <v>0.18</v>
-      </c>
-      <c r="AD49" s="18">
-        <v>0.189</v>
+        <v>9.5042090819800223E-2</v>
+      </c>
+      <c r="AB49" s="19">
+        <v>0.3165</v>
+      </c>
+      <c r="AC49" s="19">
+        <v>0.17199999999999999</v>
+      </c>
+      <c r="AD49" s="19">
+        <v>0.22800000000000001</v>
       </c>
     </row>
     <row r="50" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N50" s="2"/>
-      <c r="R50" s="17"/>
+      <c r="R50" s="16"/>
       <c r="S50" s="2">
         <v>1000</v>
       </c>
       <c r="T50" s="10">
-        <v>0.14108535833123201</v>
+        <v>0.13357705975846099</v>
       </c>
       <c r="U50" s="10">
-        <v>0.15219050664860301</v>
+        <v>0.14701036610214799</v>
       </c>
       <c r="V50" s="10"/>
       <c r="W50" s="10"/>
       <c r="X50" s="10"/>
       <c r="Y50" s="10"/>
       <c r="Z50" s="10">
-        <v>0.14201630857310801</v>
+        <v>0.14760589447770911</v>
       </c>
       <c r="AA50" s="10">
-        <v>0.1224445226875083</v>
-      </c>
-      <c r="AB50" s="18"/>
-      <c r="AC50" s="18"/>
-      <c r="AD50" s="18"/>
+        <v>8.1518245526609412E-2</v>
+      </c>
+      <c r="AB50" s="19"/>
+      <c r="AC50" s="19"/>
+      <c r="AD50" s="19"/>
     </row>
     <row r="51" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N51" s="2"/>
-      <c r="R51" s="17"/>
+      <c r="R51" s="16"/>
       <c r="S51" s="2">
         <v>2000</v>
       </c>
       <c r="T51" s="10">
-        <v>0.12452513779374701</v>
+        <v>0.122496716326478</v>
       </c>
       <c r="U51" s="10">
-        <v>0.13493309967233799</v>
+        <v>0.13687129197488801</v>
       </c>
       <c r="V51" s="10"/>
       <c r="W51" s="10"/>
       <c r="X51" s="10"/>
       <c r="Y51" s="10"/>
       <c r="Z51" s="10">
-        <v>0.1223589494365398</v>
+        <v>0.1427892837570599</v>
       </c>
       <c r="AA51" s="10">
-        <v>0.13044688553761841</v>
-      </c>
-      <c r="AB51" s="18"/>
-      <c r="AC51" s="18"/>
-      <c r="AD51" s="18"/>
+        <v>7.9552882005758413E-2</v>
+      </c>
+      <c r="AB51" s="19"/>
+      <c r="AC51" s="19"/>
+      <c r="AD51" s="19"/>
     </row>
     <row r="52" spans="14:30" x14ac:dyDescent="0.25">
       <c r="N52" s="2"/>
-      <c r="R52" s="17" t="s">
-        <v>11</v>
+      <c r="R52" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="S52" s="2">
         <v>500</v>
       </c>
-      <c r="T52" s="14">
-        <v>0.192479975410696</v>
-      </c>
-      <c r="U52" s="14">
-        <v>0.20715937580716701</v>
-      </c>
-      <c r="V52" s="9"/>
-      <c r="W52" s="9"/>
-      <c r="X52" s="9"/>
-      <c r="Y52" s="9"/>
-      <c r="Z52" s="9">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="AA52" s="9">
-        <v>0.15554999999999999</v>
-      </c>
-      <c r="AB52" s="18">
-        <v>0.33660000000000001</v>
-      </c>
-      <c r="AC52" s="18">
-        <v>0.187</v>
-      </c>
-      <c r="AD52" s="18">
-        <v>0.254</v>
+      <c r="T52" s="10">
+        <v>0.16082487412518701</v>
+      </c>
+      <c r="U52" s="10">
+        <v>0.17556699386677699</v>
+      </c>
+      <c r="V52" s="10"/>
+      <c r="W52" s="10"/>
+      <c r="X52" s="10"/>
+      <c r="Y52" s="10"/>
+      <c r="Z52" s="10">
+        <v>0.16159056949776701</v>
+      </c>
+      <c r="AA52" s="10">
+        <v>0.15015819804763289</v>
+      </c>
+      <c r="AB52" s="19">
+        <v>0.33110000000000001</v>
+      </c>
+      <c r="AC52" s="19">
+        <v>0.18</v>
+      </c>
+      <c r="AD52" s="19">
+        <v>0.189</v>
       </c>
     </row>
     <row r="53" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R53" s="17"/>
+      <c r="R53" s="16"/>
       <c r="S53" s="2">
         <v>1000</v>
       </c>
-      <c r="T53" s="14">
-        <v>0.18063680424256201</v>
-      </c>
-      <c r="U53" s="14">
-        <v>0.18559679717001901</v>
-      </c>
-      <c r="V53" s="9"/>
-      <c r="W53" s="9"/>
-      <c r="X53" s="9"/>
-      <c r="Y53" s="9"/>
-      <c r="Z53" s="9">
-        <v>0.18522</v>
-      </c>
-      <c r="AA53" s="9">
-        <v>0.13542999999999999</v>
-      </c>
-      <c r="AB53" s="18"/>
-      <c r="AC53" s="18"/>
-      <c r="AD53" s="18"/>
+      <c r="T53" s="10">
+        <v>0.14108535833123201</v>
+      </c>
+      <c r="U53" s="10">
+        <v>0.15219050664860301</v>
+      </c>
+      <c r="V53" s="10"/>
+      <c r="W53" s="10"/>
+      <c r="X53" s="10"/>
+      <c r="Y53" s="10"/>
+      <c r="Z53" s="10">
+        <v>0.14201630857310801</v>
+      </c>
+      <c r="AA53" s="10">
+        <v>0.1224445226875083</v>
+      </c>
+      <c r="AB53" s="19"/>
+      <c r="AC53" s="19"/>
+      <c r="AD53" s="19"/>
     </row>
     <row r="54" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R54" s="17"/>
+      <c r="R54" s="16"/>
       <c r="S54" s="2">
         <v>2000</v>
       </c>
-      <c r="T54" s="14">
-        <v>0.164205491927156</v>
-      </c>
-      <c r="U54" s="14">
-        <v>0.17364247940629399</v>
-      </c>
-      <c r="V54" s="9"/>
-      <c r="W54" s="9"/>
-      <c r="X54" s="9"/>
-      <c r="Y54" s="9"/>
-      <c r="Z54" s="9">
-        <v>0.16964000000000001</v>
-      </c>
-      <c r="AA54" s="9">
-        <v>0.13653999999999999</v>
-      </c>
-      <c r="AB54" s="18"/>
-      <c r="AC54" s="18"/>
-      <c r="AD54" s="18"/>
+      <c r="T54" s="10">
+        <v>0.12452513779374701</v>
+      </c>
+      <c r="U54" s="10">
+        <v>0.13493309967233799</v>
+      </c>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10">
+        <v>0.1223589494365398</v>
+      </c>
+      <c r="AA54" s="10">
+        <v>0.13044688553761841</v>
+      </c>
+      <c r="AB54" s="19"/>
+      <c r="AC54" s="19"/>
+      <c r="AD54" s="19"/>
     </row>
     <row r="55" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R55" s="17" t="s">
-        <v>12</v>
+      <c r="R55" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="S55" s="2">
         <v>500</v>
       </c>
-      <c r="T55" s="10">
-        <v>0.104403499883803</v>
-      </c>
-      <c r="U55" s="10">
-        <v>0.11653707210257</v>
-      </c>
-      <c r="V55" s="10"/>
-      <c r="W55" s="10"/>
-      <c r="X55" s="10"/>
-      <c r="Y55" s="10"/>
-      <c r="Z55" s="10">
-        <v>0.10443781416783531</v>
-      </c>
-      <c r="AA55" s="10">
-        <v>9.5992092848552785E-2</v>
-      </c>
-      <c r="AB55" s="18">
-        <v>0.22470000000000001</v>
-      </c>
-      <c r="AC55" s="18">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="AD55" s="18">
-        <v>0.159</v>
+      <c r="T55" s="14">
+        <v>0.192479975410696</v>
+      </c>
+      <c r="U55" s="14">
+        <v>0.20715937580716701</v>
+      </c>
+      <c r="V55" s="9"/>
+      <c r="W55" s="9"/>
+      <c r="X55" s="9"/>
+      <c r="Y55" s="9"/>
+      <c r="Z55" s="9">
+        <v>0.21199999999999999</v>
+      </c>
+      <c r="AA55" s="9">
+        <v>0.15554999999999999</v>
+      </c>
+      <c r="AB55" s="19">
+        <v>0.33660000000000001</v>
+      </c>
+      <c r="AC55" s="19">
+        <v>0.187</v>
+      </c>
+      <c r="AD55" s="19">
+        <v>0.254</v>
       </c>
     </row>
     <row r="56" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R56" s="17"/>
+      <c r="R56" s="16"/>
       <c r="S56" s="2">
         <v>1000</v>
       </c>
-      <c r="T56" s="10">
-        <v>8.4156849606946998E-2</v>
-      </c>
-      <c r="U56" s="10">
-        <v>9.5540205554438998E-2</v>
-      </c>
-      <c r="V56" s="10"/>
-      <c r="W56" s="10"/>
-      <c r="X56" s="10"/>
-      <c r="Y56" s="10"/>
-      <c r="Z56" s="10">
-        <v>8.4659632275924407E-2</v>
-      </c>
-      <c r="AA56" s="10">
-        <v>8.7989755185643365E-2</v>
-      </c>
-      <c r="AB56" s="18"/>
-      <c r="AC56" s="18"/>
-      <c r="AD56" s="18"/>
+      <c r="T56" s="14">
+        <v>0.18063680424256201</v>
+      </c>
+      <c r="U56" s="14">
+        <v>0.18559679717001901</v>
+      </c>
+      <c r="V56" s="9"/>
+      <c r="W56" s="9"/>
+      <c r="X56" s="9"/>
+      <c r="Y56" s="9"/>
+      <c r="Z56" s="9">
+        <v>0.18522</v>
+      </c>
+      <c r="AA56" s="9">
+        <v>0.13542999999999999</v>
+      </c>
+      <c r="AB56" s="19"/>
+      <c r="AC56" s="19"/>
+      <c r="AD56" s="19"/>
     </row>
     <row r="57" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R57" s="17"/>
+      <c r="R57" s="16"/>
       <c r="S57" s="2">
         <v>2000</v>
       </c>
-      <c r="T57" s="10">
-        <v>6.7178246113744303E-2</v>
-      </c>
-      <c r="U57" s="10">
-        <v>7.7071419895945903E-2</v>
-      </c>
-      <c r="V57" s="10"/>
-      <c r="W57" s="10"/>
-      <c r="X57" s="10"/>
-      <c r="Y57" s="10"/>
-      <c r="Z57" s="10">
-        <v>6.3550861874559078E-2</v>
-      </c>
-      <c r="AA57" s="10">
-        <v>8.9122340895006563E-2</v>
-      </c>
-      <c r="AB57" s="18"/>
-      <c r="AC57" s="18"/>
-      <c r="AD57" s="18"/>
+      <c r="T57" s="14">
+        <v>0.164205491927156</v>
+      </c>
+      <c r="U57" s="14">
+        <v>0.17364247940629399</v>
+      </c>
+      <c r="V57" s="9"/>
+      <c r="W57" s="9"/>
+      <c r="X57" s="9"/>
+      <c r="Y57" s="9"/>
+      <c r="Z57" s="9">
+        <v>0.16964000000000001</v>
+      </c>
+      <c r="AA57" s="9">
+        <v>0.13653999999999999</v>
+      </c>
+      <c r="AB57" s="19"/>
+      <c r="AC57" s="19"/>
+      <c r="AD57" s="19"/>
     </row>
     <row r="58" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R58" s="17" t="s">
-        <v>13</v>
+      <c r="R58" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="S58" s="2">
         <v>500</v>
       </c>
       <c r="T58" s="10">
-        <v>0.13968515692590899</v>
+        <v>0.104403499883803</v>
       </c>
       <c r="U58" s="10">
-        <v>0.145071431313543</v>
+        <v>0.11653707210257</v>
       </c>
       <c r="V58" s="10"/>
       <c r="W58" s="10"/>
       <c r="X58" s="10"/>
       <c r="Y58" s="10"/>
       <c r="Z58" s="10">
-        <v>0.13347989582149281</v>
+        <v>0.10443781416783531</v>
       </c>
       <c r="AA58" s="10">
-        <v>0.11002205723648149</v>
-      </c>
-      <c r="AB58" s="18">
-        <v>0.26550000000000001</v>
-      </c>
-      <c r="AC58" s="18">
-        <v>0.13500000000000001</v>
-      </c>
-      <c r="AD58" s="18">
-        <v>0.17399999999999999</v>
+        <v>9.5992092848552785E-2</v>
+      </c>
+      <c r="AB58" s="19">
+        <v>0.22470000000000001</v>
+      </c>
+      <c r="AC58" s="19">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="AD58" s="19">
+        <v>0.159</v>
       </c>
     </row>
     <row r="59" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R59" s="17"/>
+      <c r="R59" s="16"/>
       <c r="S59" s="2">
         <v>1000</v>
       </c>
       <c r="T59" s="10">
-        <v>0.121856474359452</v>
+        <v>8.4156849606946998E-2</v>
       </c>
       <c r="U59" s="10">
-        <v>0.13267519895687499</v>
+        <v>9.5540205554438998E-2</v>
       </c>
       <c r="V59" s="10"/>
       <c r="W59" s="10"/>
       <c r="X59" s="10"/>
       <c r="Y59" s="10"/>
       <c r="Z59" s="10">
-        <v>0.1160838308532421</v>
+        <v>8.4659632275924407E-2</v>
       </c>
       <c r="AA59" s="10">
-        <v>9.9799436468565761E-2</v>
-      </c>
-      <c r="AB59" s="18"/>
-      <c r="AC59" s="18"/>
-      <c r="AD59" s="18"/>
+        <v>8.7989755185643365E-2</v>
+      </c>
+      <c r="AB59" s="19"/>
+      <c r="AC59" s="19"/>
+      <c r="AD59" s="19"/>
     </row>
     <row r="60" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R60" s="17"/>
+      <c r="R60" s="16"/>
       <c r="S60" s="2">
         <v>2000</v>
       </c>
       <c r="T60" s="10">
-        <v>0.105101382742104</v>
+        <v>6.7178246113744303E-2</v>
       </c>
       <c r="U60" s="10">
-        <v>0.114484466098544</v>
+        <v>7.7071419895945903E-2</v>
       </c>
       <c r="V60" s="10"/>
       <c r="W60" s="10"/>
       <c r="X60" s="10"/>
       <c r="Y60" s="10"/>
       <c r="Z60" s="10">
-        <v>9.4201676253653582E-2</v>
+        <v>6.3550861874559078E-2</v>
       </c>
       <c r="AA60" s="10">
-        <v>8.620059030379669E-2</v>
-      </c>
-      <c r="AB60" s="18"/>
-      <c r="AC60" s="18"/>
-      <c r="AD60" s="18"/>
+        <v>8.9122340895006563E-2</v>
+      </c>
+      <c r="AB60" s="19"/>
+      <c r="AC60" s="19"/>
+      <c r="AD60" s="19"/>
     </row>
     <row r="61" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R61" s="17" t="s">
-        <v>14</v>
+      <c r="R61" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="S61" s="2">
         <v>500</v>
       </c>
       <c r="T61" s="10">
-        <v>7.5805271501747401E-2</v>
+        <v>0.13968515692590899</v>
       </c>
       <c r="U61" s="10">
-        <v>7.6521577786481901E-2</v>
+        <v>0.145071431313543</v>
       </c>
       <c r="V61" s="10"/>
       <c r="W61" s="10"/>
       <c r="X61" s="10"/>
       <c r="Y61" s="10"/>
       <c r="Z61" s="10">
-        <v>6.9684492109871168E-2</v>
+        <v>0.13347989582149281</v>
       </c>
       <c r="AA61" s="10">
-        <v>6.2987731738569364E-2</v>
-      </c>
-      <c r="AB61" s="18">
-        <v>0.1366</v>
-      </c>
-      <c r="AC61" s="18">
-        <v>6.6000000000000003E-2</v>
-      </c>
-      <c r="AD61" s="18">
-        <v>7.0000000000000007E-2</v>
+        <v>0.11002205723648149</v>
+      </c>
+      <c r="AB61" s="19">
+        <v>0.26550000000000001</v>
+      </c>
+      <c r="AC61" s="19">
+        <v>0.13500000000000001</v>
+      </c>
+      <c r="AD61" s="19">
+        <v>0.17399999999999999</v>
       </c>
     </row>
     <row r="62" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R62" s="17"/>
+      <c r="R62" s="16"/>
       <c r="S62" s="2">
         <v>1000</v>
       </c>
       <c r="T62" s="10">
-        <v>5.9979940745037097E-2</v>
+        <v>0.121856474359452</v>
       </c>
       <c r="U62" s="10">
-        <v>6.0671204903355799E-2</v>
+        <v>0.13267519895687499</v>
       </c>
       <c r="V62" s="10"/>
       <c r="W62" s="10"/>
       <c r="X62" s="10"/>
       <c r="Y62" s="10"/>
       <c r="Z62" s="10">
-        <v>5.4501220071836332E-2</v>
+        <v>0.1160838308532421</v>
       </c>
       <c r="AA62" s="10">
-        <v>4.8776938486307993E-2</v>
-      </c>
-      <c r="AB62" s="18"/>
-      <c r="AC62" s="18"/>
-      <c r="AD62" s="18"/>
+        <v>9.9799436468565761E-2</v>
+      </c>
+      <c r="AB62" s="19"/>
+      <c r="AC62" s="19"/>
+      <c r="AD62" s="19"/>
     </row>
     <row r="63" spans="14:30" x14ac:dyDescent="0.25">
-      <c r="R63" s="17"/>
+      <c r="R63" s="16"/>
       <c r="S63" s="2">
         <v>2000</v>
       </c>
       <c r="T63" s="10">
-        <v>4.2468056823099502E-2</v>
+        <v>0.105101382742104</v>
       </c>
       <c r="U63" s="10">
-        <v>4.6589452621796999E-2</v>
+        <v>0.114484466098544</v>
       </c>
       <c r="V63" s="10"/>
       <c r="W63" s="10"/>
       <c r="X63" s="10"/>
       <c r="Y63" s="10"/>
       <c r="Z63" s="10">
+        <v>9.4201676253653582E-2</v>
+      </c>
+      <c r="AA63" s="10">
+        <v>8.620059030379669E-2</v>
+      </c>
+      <c r="AB63" s="19"/>
+      <c r="AC63" s="19"/>
+      <c r="AD63" s="19"/>
+    </row>
+    <row r="64" spans="14:30" x14ac:dyDescent="0.25">
+      <c r="R64" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S64" s="2">
+        <v>500</v>
+      </c>
+      <c r="T64" s="10">
+        <v>7.5805271501747401E-2</v>
+      </c>
+      <c r="U64" s="10">
+        <v>7.6521577786481901E-2</v>
+      </c>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+      <c r="Z64" s="10">
+        <v>6.9684492109871168E-2</v>
+      </c>
+      <c r="AA64" s="10">
+        <v>6.2987731738569364E-2</v>
+      </c>
+      <c r="AB64" s="19">
+        <v>0.1366</v>
+      </c>
+      <c r="AC64" s="19">
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="AD64" s="19">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="18:30" x14ac:dyDescent="0.25">
+      <c r="R65" s="16"/>
+      <c r="S65" s="2">
+        <v>1000</v>
+      </c>
+      <c r="T65" s="10">
+        <v>5.9979940745037097E-2</v>
+      </c>
+      <c r="U65" s="10">
+        <v>6.0671204903355799E-2</v>
+      </c>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+      <c r="Z65" s="10">
+        <v>5.4501220071836332E-2</v>
+      </c>
+      <c r="AA65" s="10">
+        <v>4.8776938486307993E-2</v>
+      </c>
+      <c r="AB65" s="19"/>
+      <c r="AC65" s="19"/>
+      <c r="AD65" s="19"/>
+    </row>
+    <row r="66" spans="18:30" x14ac:dyDescent="0.25">
+      <c r="R66" s="16"/>
+      <c r="S66" s="2">
+        <v>2000</v>
+      </c>
+      <c r="T66" s="10">
+        <v>4.2468056823099502E-2</v>
+      </c>
+      <c r="U66" s="10">
+        <v>4.6589452621796999E-2</v>
+      </c>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+      <c r="Z66" s="10">
         <v>3.6751807155286573E-2</v>
       </c>
-      <c r="AA63" s="10">
+      <c r="AA66" s="10">
         <v>4.3658381259155027E-2</v>
       </c>
-      <c r="AB63" s="18"/>
-      <c r="AC63" s="18"/>
-      <c r="AD63" s="18"/>
-    </row>
-    <row r="66" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R66" s="17" t="s">
+      <c r="AB66" s="19"/>
+      <c r="AC66" s="19"/>
+      <c r="AD66" s="19"/>
+    </row>
+    <row r="69" spans="18:30" x14ac:dyDescent="0.25">
+      <c r="R69" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="S66" s="17"/>
-      <c r="T66" s="21" t="s">
+      <c r="S69" s="16"/>
+      <c r="T69" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="U66" s="21"/>
-      <c r="V66" s="21" t="s">
+      <c r="U69" s="17"/>
+      <c r="V69" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="W66" s="21"/>
-      <c r="X66" s="21" t="s">
+      <c r="W69" s="17"/>
+      <c r="X69" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="Y66" s="21"/>
-      <c r="Z66" s="17" t="s">
+      <c r="Y69" s="17"/>
+      <c r="Z69" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="AA66" s="17" t="s">
+      <c r="AA69" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="AB66" s="17" t="s">
+      <c r="AB69" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="AC66" s="17" t="s">
+      <c r="AC69" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="AD66" s="17" t="s">
+      <c r="AD69" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="67" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R67" s="17"/>
-      <c r="S67" s="17"/>
-      <c r="T67" s="12" t="s">
+    <row r="70" spans="18:30" x14ac:dyDescent="0.25">
+      <c r="R70" s="16"/>
+      <c r="S70" s="16"/>
+      <c r="T70" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="U67" s="12" t="s">
+      <c r="U70" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="V67" s="12" t="s">
+      <c r="V70" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="W67" s="12" t="s">
+      <c r="W70" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="X67" s="12" t="s">
+      <c r="X70" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="Y67" s="12" t="s">
+      <c r="Y70" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="Z67" s="17"/>
-      <c r="AA67" s="17"/>
-      <c r="AB67" s="17"/>
-      <c r="AC67" s="17"/>
-      <c r="AD67" s="17"/>
-    </row>
-    <row r="68" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R68" s="17" t="s">
+      <c r="Z70" s="16"/>
+      <c r="AA70" s="16"/>
+      <c r="AB70" s="16"/>
+      <c r="AC70" s="16"/>
+      <c r="AD70" s="16"/>
+    </row>
+    <row r="71" spans="18:30" x14ac:dyDescent="0.25">
+      <c r="R71" s="16" t="s">
         <v>4</v>
-      </c>
-      <c r="S68" s="2">
-        <v>500</v>
-      </c>
-      <c r="T68" s="11">
-        <v>0.71460000000000001</v>
-      </c>
-      <c r="U68" s="11">
-        <v>0.7056</v>
-      </c>
-      <c r="V68" s="11"/>
-      <c r="W68" s="11"/>
-      <c r="X68" s="11"/>
-      <c r="Y68" s="11"/>
-      <c r="Z68" s="11">
-        <v>0.78479673385620119</v>
-      </c>
-      <c r="AA68" s="11">
-        <v>23.031238255500789</v>
-      </c>
-      <c r="AB68" s="16">
-        <v>0.17649999999999999</v>
-      </c>
-      <c r="AC68" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="AD68" s="17" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R69" s="17"/>
-      <c r="S69" s="2">
-        <v>1000</v>
-      </c>
-      <c r="T69" s="11">
-        <v>1.4473</v>
-      </c>
-      <c r="U69" s="11">
-        <v>1.4305000000000001</v>
-      </c>
-      <c r="V69" s="11"/>
-      <c r="W69" s="11"/>
-      <c r="X69" s="11"/>
-      <c r="Y69" s="11"/>
-      <c r="Z69" s="11">
-        <v>1.5886679291725161</v>
-      </c>
-      <c r="AA69" s="11">
-        <v>45.989559793472289</v>
-      </c>
-      <c r="AB69" s="16"/>
-      <c r="AC69" s="17"/>
-      <c r="AD69" s="17"/>
-    </row>
-    <row r="70" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R70" s="17"/>
-      <c r="S70" s="2">
-        <v>2000</v>
-      </c>
-      <c r="T70" s="11">
-        <v>2.8896000000000002</v>
-      </c>
-      <c r="U70" s="11">
-        <v>2.8673000000000002</v>
-      </c>
-      <c r="V70" s="11"/>
-      <c r="W70" s="11"/>
-      <c r="X70" s="11"/>
-      <c r="Y70" s="11"/>
-      <c r="Z70" s="11">
-        <v>3.1974858927726739</v>
-      </c>
-      <c r="AA70" s="11">
-        <v>91.03469082593918</v>
-      </c>
-      <c r="AB70" s="16"/>
-      <c r="AC70" s="17"/>
-      <c r="AD70" s="17"/>
-    </row>
-    <row r="71" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R71" s="17" t="s">
-        <v>6</v>
       </c>
       <c r="S71" s="2">
         <v>500</v>
       </c>
       <c r="T71" s="11">
-        <v>2.8628</v>
+        <v>0.71460000000000001</v>
       </c>
       <c r="U71" s="11">
-        <v>2.8395999999999999</v>
+        <v>0.7056</v>
       </c>
       <c r="V71" s="11"/>
       <c r="W71" s="11"/>
       <c r="X71" s="11"/>
       <c r="Y71" s="11"/>
       <c r="Z71" s="11">
-        <v>2.87022135257721</v>
+        <v>0.78479673385620119</v>
       </c>
       <c r="AA71" s="11">
-        <v>45.614059638977047</v>
-      </c>
-      <c r="AB71" s="16">
-        <v>0.4471</v>
-      </c>
-      <c r="AC71" s="17" t="s">
+        <v>23.031238255500789</v>
+      </c>
+      <c r="AB71" s="20">
+        <v>0.17649999999999999</v>
+      </c>
+      <c r="AC71" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AD71" s="17" t="s">
+      <c r="AD71" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="72" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R72" s="17"/>
+      <c r="R72" s="16"/>
       <c r="S72" s="2">
         <v>1000</v>
       </c>
       <c r="T72" s="11">
-        <v>5.7073</v>
+        <v>1.4473</v>
       </c>
       <c r="U72" s="11">
-        <v>5.7821999999999996</v>
+        <v>1.4305000000000001</v>
       </c>
       <c r="V72" s="11"/>
       <c r="W72" s="11"/>
       <c r="X72" s="11"/>
       <c r="Y72" s="11"/>
       <c r="Z72" s="11">
-        <v>5.690980005264282</v>
+        <v>1.5886679291725161</v>
       </c>
       <c r="AA72" s="11">
-        <v>94.371467232704163</v>
-      </c>
-      <c r="AB72" s="16"/>
-      <c r="AC72" s="17"/>
-      <c r="AD72" s="17"/>
+        <v>45.989559793472289</v>
+      </c>
+      <c r="AB72" s="20"/>
+      <c r="AC72" s="16"/>
+      <c r="AD72" s="16"/>
     </row>
     <row r="73" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R73" s="17"/>
+      <c r="R73" s="16"/>
       <c r="S73" s="2">
         <v>2000</v>
       </c>
       <c r="T73" s="11">
-        <v>11.6341</v>
+        <v>2.8896000000000002</v>
       </c>
       <c r="U73" s="11">
-        <v>11.4244</v>
+        <v>2.8673000000000002</v>
       </c>
       <c r="V73" s="11"/>
       <c r="W73" s="11"/>
       <c r="X73" s="11"/>
       <c r="Y73" s="11"/>
       <c r="Z73" s="11">
-        <v>11.370525169372559</v>
+        <v>3.1974858927726739</v>
       </c>
       <c r="AA73" s="11">
-        <v>181.21347374916081</v>
-      </c>
-      <c r="AB73" s="16"/>
-      <c r="AC73" s="17"/>
-      <c r="AD73" s="17"/>
+        <v>91.03469082593918</v>
+      </c>
+      <c r="AB73" s="20"/>
+      <c r="AC73" s="16"/>
+      <c r="AD73" s="16"/>
     </row>
     <row r="74" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R74" s="17" t="s">
-        <v>8</v>
+      <c r="R74" s="16" t="s">
+        <v>6</v>
       </c>
       <c r="S74" s="2">
         <v>500</v>
       </c>
       <c r="T74" s="11">
-        <v>3.5916999999999999</v>
+        <v>2.8628</v>
       </c>
       <c r="U74" s="11">
-        <v>3.5183</v>
+        <v>2.8395999999999999</v>
       </c>
       <c r="V74" s="11"/>
       <c r="W74" s="11"/>
       <c r="X74" s="11"/>
       <c r="Y74" s="11"/>
       <c r="Z74" s="11">
-        <v>3.4964382410049439</v>
+        <v>2.87022135257721</v>
       </c>
       <c r="AA74" s="11">
-        <v>56.951492929458617</v>
-      </c>
-      <c r="AB74" s="16">
-        <v>0.624</v>
-      </c>
-      <c r="AC74" s="17" t="s">
+        <v>45.614059638977047</v>
+      </c>
+      <c r="AB74" s="20">
+        <v>0.4471</v>
+      </c>
+      <c r="AC74" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AD74" s="17" t="s">
+      <c r="AD74" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="75" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R75" s="17"/>
+      <c r="R75" s="16"/>
       <c r="S75" s="2">
         <v>1000</v>
       </c>
       <c r="T75" s="11">
-        <v>7.1115000000000004</v>
+        <v>5.7073</v>
       </c>
       <c r="U75" s="11">
-        <v>7.0991999999999997</v>
+        <v>5.7821999999999996</v>
       </c>
       <c r="V75" s="11"/>
       <c r="W75" s="11"/>
       <c r="X75" s="11"/>
       <c r="Y75" s="11"/>
       <c r="Z75" s="11">
-        <v>7.0708879232406616</v>
+        <v>5.690980005264282</v>
       </c>
       <c r="AA75" s="11">
-        <v>108.1727962255478</v>
-      </c>
-      <c r="AB75" s="16"/>
-      <c r="AC75" s="17"/>
-      <c r="AD75" s="17"/>
+        <v>94.371467232704163</v>
+      </c>
+      <c r="AB75" s="20"/>
+      <c r="AC75" s="16"/>
+      <c r="AD75" s="16"/>
     </row>
     <row r="76" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R76" s="17"/>
+      <c r="R76" s="16"/>
       <c r="S76" s="2">
         <v>2000</v>
       </c>
       <c r="T76" s="11">
-        <v>14.2699</v>
+        <v>11.6341</v>
       </c>
       <c r="U76" s="11">
-        <v>14.6005</v>
+        <v>11.4244</v>
       </c>
       <c r="V76" s="11"/>
       <c r="W76" s="11"/>
       <c r="X76" s="11"/>
       <c r="Y76" s="11"/>
       <c r="Z76" s="11">
-        <v>14.2000776052475</v>
+        <v>11.370525169372559</v>
       </c>
       <c r="AA76" s="11">
-        <v>220.99487323760991</v>
-      </c>
-      <c r="AB76" s="16"/>
-      <c r="AC76" s="17"/>
-      <c r="AD76" s="17"/>
+        <v>181.21347374916081</v>
+      </c>
+      <c r="AB76" s="20"/>
+      <c r="AC76" s="16"/>
+      <c r="AD76" s="16"/>
     </row>
     <row r="77" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R77" s="17" t="s">
-        <v>9</v>
+      <c r="R77" s="16" t="s">
+        <v>8</v>
       </c>
       <c r="S77" s="2">
         <v>500</v>
       </c>
       <c r="T77" s="11">
-        <v>4.5884</v>
+        <v>3.5916999999999999</v>
       </c>
       <c r="U77" s="11">
-        <v>4.5166000000000004</v>
+        <v>3.5183</v>
       </c>
       <c r="V77" s="11"/>
       <c r="W77" s="11"/>
       <c r="X77" s="11"/>
       <c r="Y77" s="11"/>
       <c r="Z77" s="11">
-        <v>4.4373471736907959</v>
+        <v>3.4964382410049439</v>
       </c>
       <c r="AA77" s="11">
-        <v>85.806196355819708</v>
-      </c>
-      <c r="AB77" s="16">
-        <v>0.93700000000000006</v>
-      </c>
-      <c r="AC77" s="17" t="s">
+        <v>56.951492929458617</v>
+      </c>
+      <c r="AB77" s="20">
+        <v>0.624</v>
+      </c>
+      <c r="AC77" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AD77" s="17" t="s">
+      <c r="AD77" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="78" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R78" s="17"/>
+      <c r="R78" s="16"/>
       <c r="S78" s="2">
         <v>1000</v>
       </c>
       <c r="T78" s="11">
-        <v>9.0632000000000001</v>
+        <v>7.1115000000000004</v>
       </c>
       <c r="U78" s="11">
-        <v>9.0388000000000002</v>
+        <v>7.0991999999999997</v>
       </c>
       <c r="V78" s="11"/>
       <c r="W78" s="11"/>
       <c r="X78" s="11"/>
       <c r="Y78" s="11"/>
       <c r="Z78" s="11">
-        <v>8.968863844871521</v>
+        <v>7.0708879232406616</v>
       </c>
       <c r="AA78" s="11">
-        <v>166.8294932126999</v>
-      </c>
-      <c r="AB78" s="16"/>
-      <c r="AC78" s="17"/>
-      <c r="AD78" s="17"/>
+        <v>108.1727962255478</v>
+      </c>
+      <c r="AB78" s="20"/>
+      <c r="AC78" s="16"/>
+      <c r="AD78" s="16"/>
     </row>
     <row r="79" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R79" s="17"/>
+      <c r="R79" s="16"/>
       <c r="S79" s="2">
         <v>2000</v>
       </c>
       <c r="T79" s="11">
-        <v>18.1418</v>
+        <v>14.2699</v>
       </c>
       <c r="U79" s="11">
-        <v>18.325500000000002</v>
+        <v>14.6005</v>
       </c>
       <c r="V79" s="11"/>
       <c r="W79" s="11"/>
       <c r="X79" s="11"/>
       <c r="Y79" s="11"/>
       <c r="Z79" s="11">
-        <v>18.090933823585509</v>
+        <v>14.2000776052475</v>
       </c>
       <c r="AA79" s="11">
-        <v>335.19313392639162</v>
-      </c>
-      <c r="AB79" s="16"/>
-      <c r="AC79" s="17"/>
-      <c r="AD79" s="17"/>
+        <v>220.99487323760991</v>
+      </c>
+      <c r="AB79" s="20"/>
+      <c r="AC79" s="16"/>
+      <c r="AD79" s="16"/>
     </row>
     <row r="80" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R80" s="17" t="s">
-        <v>10</v>
+      <c r="R80" s="16" t="s">
+        <v>9</v>
       </c>
       <c r="S80" s="2">
         <v>500</v>
       </c>
       <c r="T80" s="11">
-        <v>5.0152999999999999</v>
+        <v>4.5884</v>
       </c>
       <c r="U80" s="11">
-        <v>5.0781000000000001</v>
+        <v>4.5166000000000004</v>
       </c>
       <c r="V80" s="11"/>
       <c r="W80" s="11"/>
       <c r="X80" s="11"/>
       <c r="Y80" s="11"/>
       <c r="Z80" s="11">
-        <v>5.2638321399688719</v>
+        <v>4.4373471736907959</v>
       </c>
       <c r="AA80" s="11">
-        <v>77.7067616224289</v>
-      </c>
-      <c r="AB80" s="16">
-        <v>1.1140000000000001</v>
-      </c>
-      <c r="AC80" s="17" t="s">
+        <v>85.806196355819708</v>
+      </c>
+      <c r="AB80" s="20">
+        <v>0.93700000000000006</v>
+      </c>
+      <c r="AC80" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AD80" s="17" t="s">
+      <c r="AD80" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="81" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R81" s="17"/>
+      <c r="R81" s="16"/>
       <c r="S81" s="2">
         <v>1000</v>
       </c>
       <c r="T81" s="11">
-        <v>10.020899999999999</v>
+        <v>9.0632000000000001</v>
       </c>
       <c r="U81" s="11">
-        <v>9.9977999999999998</v>
+        <v>9.0388000000000002</v>
       </c>
       <c r="V81" s="11"/>
       <c r="W81" s="11"/>
       <c r="X81" s="11"/>
       <c r="Y81" s="11"/>
       <c r="Z81" s="11">
-        <v>10.575231647491449</v>
+        <v>8.968863844871521</v>
       </c>
       <c r="AA81" s="11">
-        <v>151.92343058586121</v>
-      </c>
-      <c r="AB81" s="16"/>
-      <c r="AC81" s="17"/>
-      <c r="AD81" s="17"/>
+        <v>166.8294932126999</v>
+      </c>
+      <c r="AB81" s="20"/>
+      <c r="AC81" s="16"/>
+      <c r="AD81" s="16"/>
     </row>
     <row r="82" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R82" s="17"/>
+      <c r="R82" s="16"/>
       <c r="S82" s="2">
         <v>2000</v>
       </c>
       <c r="T82" s="11">
-        <v>20.046700000000001</v>
+        <v>18.1418</v>
       </c>
       <c r="U82" s="11">
-        <v>19.814399999999999</v>
+        <v>18.325500000000002</v>
       </c>
       <c r="V82" s="11"/>
       <c r="W82" s="11"/>
       <c r="X82" s="11"/>
       <c r="Y82" s="11"/>
       <c r="Z82" s="11">
-        <v>21.842725157737728</v>
+        <v>18.090933823585509</v>
       </c>
       <c r="AA82" s="11">
-        <v>311.46112883090967</v>
-      </c>
-      <c r="AB82" s="16"/>
-      <c r="AC82" s="17"/>
-      <c r="AD82" s="17"/>
+        <v>335.19313392639162</v>
+      </c>
+      <c r="AB82" s="20"/>
+      <c r="AC82" s="16"/>
+      <c r="AD82" s="16"/>
     </row>
     <row r="83" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R83" s="17" t="s">
-        <v>11</v>
+      <c r="R83" s="16" t="s">
+        <v>10</v>
       </c>
       <c r="S83" s="2">
         <v>500</v>
       </c>
-      <c r="T83" s="13">
-        <v>6.3531000000000004</v>
-      </c>
-      <c r="U83" s="13">
-        <v>6.2801999999999998</v>
-      </c>
-      <c r="V83" s="8"/>
-      <c r="W83" s="8"/>
-      <c r="X83" s="8"/>
-      <c r="Y83" s="8"/>
-      <c r="Z83" s="8">
-        <v>6.9530000000000003</v>
-      </c>
-      <c r="AA83" s="8">
-        <v>119.97</v>
-      </c>
-      <c r="AB83" s="16">
-        <v>1.7989999999999999</v>
-      </c>
-      <c r="AC83" s="17" t="s">
+      <c r="T83" s="11">
+        <v>5.0152999999999999</v>
+      </c>
+      <c r="U83" s="11">
+        <v>5.0781000000000001</v>
+      </c>
+      <c r="V83" s="11"/>
+      <c r="W83" s="11"/>
+      <c r="X83" s="11"/>
+      <c r="Y83" s="11"/>
+      <c r="Z83" s="11">
+        <v>5.2638321399688719</v>
+      </c>
+      <c r="AA83" s="11">
+        <v>77.7067616224289</v>
+      </c>
+      <c r="AB83" s="20">
+        <v>1.1140000000000001</v>
+      </c>
+      <c r="AC83" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AD83" s="17" t="s">
+      <c r="AD83" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="84" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R84" s="17"/>
+      <c r="R84" s="16"/>
       <c r="S84" s="2">
         <v>1000</v>
       </c>
-      <c r="T84" s="13">
-        <v>12.682499999999999</v>
-      </c>
-      <c r="U84" s="13">
-        <v>12.523899999999999</v>
-      </c>
-      <c r="V84" s="8"/>
-      <c r="W84" s="8"/>
-      <c r="X84" s="8"/>
-      <c r="Y84" s="8"/>
-      <c r="Z84" s="8">
-        <v>14.013999999999999</v>
-      </c>
-      <c r="AA84" s="8">
-        <v>239.208</v>
-      </c>
-      <c r="AB84" s="16"/>
-      <c r="AC84" s="17"/>
-      <c r="AD84" s="17"/>
+      <c r="T84" s="11">
+        <v>10.020899999999999</v>
+      </c>
+      <c r="U84" s="11">
+        <v>9.9977999999999998</v>
+      </c>
+      <c r="V84" s="11"/>
+      <c r="W84" s="11"/>
+      <c r="X84" s="11"/>
+      <c r="Y84" s="11"/>
+      <c r="Z84" s="11">
+        <v>10.575231647491449</v>
+      </c>
+      <c r="AA84" s="11">
+        <v>151.92343058586121</v>
+      </c>
+      <c r="AB84" s="20"/>
+      <c r="AC84" s="16"/>
+      <c r="AD84" s="16"/>
     </row>
     <row r="85" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R85" s="17"/>
+      <c r="R85" s="16"/>
       <c r="S85" s="2">
         <v>2000</v>
       </c>
-      <c r="T85" s="13">
-        <v>25.4224</v>
-      </c>
-      <c r="U85" s="13">
-        <v>25.108899999999998</v>
-      </c>
-      <c r="V85" s="8"/>
-      <c r="W85" s="8"/>
-      <c r="X85" s="8"/>
-      <c r="Y85" s="8"/>
-      <c r="Z85" s="8">
-        <v>28.247</v>
-      </c>
-      <c r="AA85" s="8">
-        <v>459.27699999999999</v>
-      </c>
-      <c r="AB85" s="16"/>
-      <c r="AC85" s="17"/>
-      <c r="AD85" s="17"/>
+      <c r="T85" s="11">
+        <v>20.046700000000001</v>
+      </c>
+      <c r="U85" s="11">
+        <v>19.814399999999999</v>
+      </c>
+      <c r="V85" s="11"/>
+      <c r="W85" s="11"/>
+      <c r="X85" s="11"/>
+      <c r="Y85" s="11"/>
+      <c r="Z85" s="11">
+        <v>21.842725157737728</v>
+      </c>
+      <c r="AA85" s="11">
+        <v>311.46112883090967</v>
+      </c>
+      <c r="AB85" s="20"/>
+      <c r="AC85" s="16"/>
+      <c r="AD85" s="16"/>
     </row>
     <row r="86" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R86" s="17" t="s">
-        <v>12</v>
+      <c r="R86" s="16" t="s">
+        <v>11</v>
       </c>
       <c r="S86" s="2">
         <v>500</v>
       </c>
       <c r="T86" s="13">
-        <v>8.3343000000000007</v>
+        <v>6.3531000000000004</v>
       </c>
       <c r="U86" s="13">
-        <v>8.0092999999999996</v>
+        <v>6.2801999999999998</v>
       </c>
       <c r="V86" s="8"/>
       <c r="W86" s="8"/>
       <c r="X86" s="8"/>
       <c r="Y86" s="8"/>
       <c r="Z86" s="8">
-        <v>8.8529999999999998</v>
+        <v>6.9530000000000003</v>
       </c>
       <c r="AA86" s="8">
-        <v>112.211</v>
-      </c>
-      <c r="AB86" s="16">
-        <v>2.6960000000000002</v>
-      </c>
-      <c r="AC86" s="17" t="s">
+        <v>119.97</v>
+      </c>
+      <c r="AB86" s="20">
+        <v>1.7989999999999999</v>
+      </c>
+      <c r="AC86" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AD86" s="17" t="s">
+      <c r="AD86" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="87" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R87" s="17"/>
+      <c r="R87" s="16"/>
       <c r="S87" s="2">
         <v>1000</v>
       </c>
       <c r="T87" s="13">
-        <v>16.021999999999998</v>
+        <v>12.682499999999999</v>
       </c>
       <c r="U87" s="13">
-        <v>16.0123</v>
+        <v>12.523899999999999</v>
       </c>
       <c r="V87" s="8"/>
       <c r="W87" s="8"/>
       <c r="X87" s="8"/>
       <c r="Y87" s="8"/>
       <c r="Z87" s="8">
-        <v>17.696000000000002</v>
+        <v>14.013999999999999</v>
       </c>
       <c r="AA87" s="8">
-        <v>217.464</v>
-      </c>
-      <c r="AB87" s="16"/>
-      <c r="AC87" s="17"/>
-      <c r="AD87" s="17"/>
+        <v>239.208</v>
+      </c>
+      <c r="AB87" s="20"/>
+      <c r="AC87" s="16"/>
+      <c r="AD87" s="16"/>
     </row>
     <row r="88" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R88" s="17"/>
+      <c r="R88" s="16"/>
       <c r="S88" s="2">
         <v>2000</v>
       </c>
       <c r="T88" s="13">
-        <v>32.122599999999998</v>
+        <v>25.4224</v>
       </c>
       <c r="U88" s="13">
-        <v>32.1419</v>
+        <v>25.108899999999998</v>
       </c>
       <c r="V88" s="8"/>
       <c r="W88" s="8"/>
       <c r="X88" s="8"/>
       <c r="Y88" s="8"/>
       <c r="Z88" s="8">
-        <v>35.612000000000002</v>
+        <v>28.247</v>
       </c>
       <c r="AA88" s="8">
-        <v>605.226</v>
-      </c>
-      <c r="AB88" s="16"/>
-      <c r="AC88" s="17"/>
-      <c r="AD88" s="17"/>
+        <v>459.27699999999999</v>
+      </c>
+      <c r="AB88" s="20"/>
+      <c r="AC88" s="16"/>
+      <c r="AD88" s="16"/>
     </row>
     <row r="89" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R89" s="17" t="s">
-        <v>13</v>
+      <c r="R89" s="16" t="s">
+        <v>12</v>
       </c>
       <c r="S89" s="2">
         <v>500</v>
       </c>
-      <c r="T89" s="11">
-        <v>10.831200000000001</v>
-      </c>
-      <c r="U89" s="11">
-        <v>10.722300000000001</v>
-      </c>
-      <c r="V89" s="11"/>
-      <c r="W89" s="11"/>
-      <c r="X89" s="11"/>
-      <c r="Y89" s="11"/>
-      <c r="Z89" s="11">
-        <v>18.082314682006839</v>
-      </c>
-      <c r="AA89" s="11">
-        <v>280.24865968227391</v>
-      </c>
-      <c r="AB89" s="16">
-        <v>4.883</v>
-      </c>
-      <c r="AC89" s="17" t="s">
+      <c r="T89" s="13">
+        <v>8.3343000000000007</v>
+      </c>
+      <c r="U89" s="13">
+        <v>8.0092999999999996</v>
+      </c>
+      <c r="V89" s="8"/>
+      <c r="W89" s="8"/>
+      <c r="X89" s="8"/>
+      <c r="Y89" s="8"/>
+      <c r="Z89" s="8">
+        <v>8.8529999999999998</v>
+      </c>
+      <c r="AA89" s="8">
+        <v>112.211</v>
+      </c>
+      <c r="AB89" s="20">
+        <v>2.6960000000000002</v>
+      </c>
+      <c r="AC89" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AD89" s="17" t="s">
+      <c r="AD89" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="90" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R90" s="17"/>
+      <c r="R90" s="16"/>
       <c r="S90" s="2">
         <v>1000</v>
       </c>
-      <c r="T90" s="11">
-        <v>21.6843</v>
-      </c>
-      <c r="U90" s="11">
-        <v>21.523700000000002</v>
-      </c>
-      <c r="V90" s="11"/>
-      <c r="W90" s="11"/>
-      <c r="X90" s="11"/>
-      <c r="Y90" s="11"/>
-      <c r="Z90" s="11">
-        <v>38.163202548027037</v>
-      </c>
-      <c r="AA90" s="11">
-        <v>567.21448349952698</v>
-      </c>
-      <c r="AB90" s="16"/>
-      <c r="AC90" s="17"/>
-      <c r="AD90" s="17"/>
+      <c r="T90" s="13">
+        <v>16.021999999999998</v>
+      </c>
+      <c r="U90" s="13">
+        <v>16.0123</v>
+      </c>
+      <c r="V90" s="8"/>
+      <c r="W90" s="8"/>
+      <c r="X90" s="8"/>
+      <c r="Y90" s="8"/>
+      <c r="Z90" s="8">
+        <v>17.696000000000002</v>
+      </c>
+      <c r="AA90" s="8">
+        <v>217.464</v>
+      </c>
+      <c r="AB90" s="20"/>
+      <c r="AC90" s="16"/>
+      <c r="AD90" s="16"/>
     </row>
     <row r="91" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R91" s="17"/>
+      <c r="R91" s="16"/>
       <c r="S91" s="2">
         <v>2000</v>
       </c>
-      <c r="T91" s="11">
-        <v>43.0182</v>
-      </c>
-      <c r="U91" s="11">
-        <v>42.598999999999997</v>
-      </c>
-      <c r="V91" s="11"/>
-      <c r="W91" s="11"/>
-      <c r="X91" s="11"/>
-      <c r="Y91" s="11"/>
-      <c r="Z91" s="11">
-        <v>79.569111132621771</v>
-      </c>
-      <c r="AA91" s="11">
-        <v>1013.222328734398</v>
-      </c>
-      <c r="AB91" s="16"/>
-      <c r="AC91" s="17"/>
-      <c r="AD91" s="17"/>
+      <c r="T91" s="13">
+        <v>32.122599999999998</v>
+      </c>
+      <c r="U91" s="13">
+        <v>32.1419</v>
+      </c>
+      <c r="V91" s="8"/>
+      <c r="W91" s="8"/>
+      <c r="X91" s="8"/>
+      <c r="Y91" s="8"/>
+      <c r="Z91" s="8">
+        <v>35.612000000000002</v>
+      </c>
+      <c r="AA91" s="8">
+        <v>605.226</v>
+      </c>
+      <c r="AB91" s="20"/>
+      <c r="AC91" s="16"/>
+      <c r="AD91" s="16"/>
     </row>
     <row r="92" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R92" s="17" t="s">
-        <v>14</v>
+      <c r="R92" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="S92" s="2">
         <v>500</v>
       </c>
-      <c r="T92" s="13">
-        <v>28.7834</v>
-      </c>
-      <c r="U92" s="13">
-        <v>28.5688</v>
-      </c>
-      <c r="V92" s="8"/>
-      <c r="W92" s="8"/>
-      <c r="X92" s="8"/>
-      <c r="Y92" s="8"/>
-      <c r="Z92" s="8">
-        <v>28.082000000000001</v>
-      </c>
-      <c r="AA92" s="8">
-        <v>356.411</v>
-      </c>
-      <c r="AB92" s="16">
-        <v>28.327999999999999</v>
-      </c>
-      <c r="AC92" s="17" t="s">
+      <c r="T92" s="11">
+        <v>10.831200000000001</v>
+      </c>
+      <c r="U92" s="11">
+        <v>10.722300000000001</v>
+      </c>
+      <c r="V92" s="11"/>
+      <c r="W92" s="11"/>
+      <c r="X92" s="11"/>
+      <c r="Y92" s="11"/>
+      <c r="Z92" s="11">
+        <v>18.082314682006839</v>
+      </c>
+      <c r="AA92" s="11">
+        <v>280.24865968227391</v>
+      </c>
+      <c r="AB92" s="20">
+        <v>4.883</v>
+      </c>
+      <c r="AC92" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="AD92" s="17" t="s">
+      <c r="AD92" s="16" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="93" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R93" s="17"/>
+      <c r="R93" s="16"/>
       <c r="S93" s="2">
         <v>1000</v>
       </c>
-      <c r="T93" s="13">
-        <v>57.615699999999997</v>
-      </c>
-      <c r="U93" s="13">
-        <v>56.761000000000003</v>
-      </c>
-      <c r="V93" s="8"/>
-      <c r="W93" s="8"/>
-      <c r="X93" s="8"/>
-      <c r="Y93" s="8"/>
-      <c r="Z93" s="8">
-        <v>87.552000000000007</v>
-      </c>
-      <c r="AA93" s="8">
-        <v>940.48</v>
-      </c>
-      <c r="AB93" s="16"/>
-      <c r="AC93" s="17"/>
-      <c r="AD93" s="17"/>
+      <c r="T93" s="11">
+        <v>21.6843</v>
+      </c>
+      <c r="U93" s="11">
+        <v>21.523700000000002</v>
+      </c>
+      <c r="V93" s="11"/>
+      <c r="W93" s="11"/>
+      <c r="X93" s="11"/>
+      <c r="Y93" s="11"/>
+      <c r="Z93" s="11">
+        <v>38.163202548027037</v>
+      </c>
+      <c r="AA93" s="11">
+        <v>567.21448349952698</v>
+      </c>
+      <c r="AB93" s="20"/>
+      <c r="AC93" s="16"/>
+      <c r="AD93" s="16"/>
     </row>
     <row r="94" spans="18:30" x14ac:dyDescent="0.25">
-      <c r="R94" s="17"/>
+      <c r="R94" s="16"/>
       <c r="S94" s="2">
         <v>2000</v>
       </c>
-      <c r="T94" s="13">
+      <c r="T94" s="11">
+        <v>43.0182</v>
+      </c>
+      <c r="U94" s="11">
+        <v>42.598999999999997</v>
+      </c>
+      <c r="V94" s="11"/>
+      <c r="W94" s="11"/>
+      <c r="X94" s="11"/>
+      <c r="Y94" s="11"/>
+      <c r="Z94" s="11">
+        <v>79.569111132621771</v>
+      </c>
+      <c r="AA94" s="11">
+        <v>1013.222328734398</v>
+      </c>
+      <c r="AB94" s="20"/>
+      <c r="AC94" s="16"/>
+      <c r="AD94" s="16"/>
+    </row>
+    <row r="95" spans="18:30" x14ac:dyDescent="0.25">
+      <c r="R95" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S95" s="2">
+        <v>500</v>
+      </c>
+      <c r="T95" s="13">
+        <v>28.7834</v>
+      </c>
+      <c r="U95" s="13">
+        <v>28.5688</v>
+      </c>
+      <c r="V95" s="8"/>
+      <c r="W95" s="8"/>
+      <c r="X95" s="8"/>
+      <c r="Y95" s="8"/>
+      <c r="Z95" s="8">
+        <v>28.082000000000001</v>
+      </c>
+      <c r="AA95" s="8">
+        <v>356.411</v>
+      </c>
+      <c r="AB95" s="20">
+        <v>28.327999999999999</v>
+      </c>
+      <c r="AC95" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD95" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="96" spans="18:30" x14ac:dyDescent="0.25">
+      <c r="R96" s="16"/>
+      <c r="S96" s="2">
+        <v>1000</v>
+      </c>
+      <c r="T96" s="13">
+        <v>57.615699999999997</v>
+      </c>
+      <c r="U96" s="13">
+        <v>56.761000000000003</v>
+      </c>
+      <c r="V96" s="8"/>
+      <c r="W96" s="8"/>
+      <c r="X96" s="8"/>
+      <c r="Y96" s="8"/>
+      <c r="Z96" s="8">
+        <v>87.552000000000007</v>
+      </c>
+      <c r="AA96" s="8">
+        <v>940.48</v>
+      </c>
+      <c r="AB96" s="20"/>
+      <c r="AC96" s="16"/>
+      <c r="AD96" s="16"/>
+    </row>
+    <row r="97" spans="18:30" x14ac:dyDescent="0.25">
+      <c r="R97" s="16"/>
+      <c r="S97" s="2">
+        <v>2000</v>
+      </c>
+      <c r="T97" s="13">
         <v>114.1955</v>
       </c>
-      <c r="U94" s="15">
+      <c r="U97" s="15">
         <v>114.1952</v>
       </c>
-      <c r="V94" s="8"/>
-      <c r="W94" s="8"/>
-      <c r="X94" s="8"/>
-      <c r="Y94" s="8"/>
-      <c r="Z94" s="8">
+      <c r="V97" s="8"/>
+      <c r="W97" s="8"/>
+      <c r="X97" s="8"/>
+      <c r="Y97" s="8"/>
+      <c r="Z97" s="8">
         <v>170.73599999999999</v>
       </c>
-      <c r="AA94" s="8">
+      <c r="AA97" s="8">
         <v>1807.9839999999999</v>
       </c>
-      <c r="AB94" s="16"/>
-      <c r="AC94" s="17"/>
-      <c r="AD94" s="17"/>
-    </row>
-    <row r="111" spans="20:27" x14ac:dyDescent="0.25">
+      <c r="AB97" s="20"/>
+      <c r="AC97" s="16"/>
+      <c r="AD97" s="16"/>
+    </row>
+    <row r="111" spans="18:30" x14ac:dyDescent="0.25">
       <c r="T111" s="7"/>
       <c r="U111" s="7"/>
       <c r="V111" s="7"/>
@@ -2342,7 +2341,7 @@
       <c r="Z111" s="7"/>
       <c r="AA111" s="7"/>
     </row>
-    <row r="112" spans="20:27" x14ac:dyDescent="0.25">
+    <row r="112" spans="18:30" x14ac:dyDescent="0.25">
       <c r="T112" s="7"/>
       <c r="U112" s="7"/>
       <c r="V112" s="7"/>
@@ -2374,96 +2373,96 @@
     </row>
   </sheetData>
   <mergeCells count="90">
-    <mergeCell ref="R52:R54"/>
-    <mergeCell ref="R55:R57"/>
-    <mergeCell ref="R58:R60"/>
-    <mergeCell ref="R61:R63"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="R37:R39"/>
-    <mergeCell ref="R40:R42"/>
-    <mergeCell ref="R43:R45"/>
-    <mergeCell ref="V35:W35"/>
-    <mergeCell ref="X35:Y35"/>
-    <mergeCell ref="R35:S36"/>
-    <mergeCell ref="R46:R48"/>
-    <mergeCell ref="R49:R51"/>
-    <mergeCell ref="AB43:AB45"/>
-    <mergeCell ref="AB46:AB48"/>
-    <mergeCell ref="AD35:AD36"/>
-    <mergeCell ref="R66:S67"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="Z66:Z67"/>
-    <mergeCell ref="AA66:AA67"/>
-    <mergeCell ref="Z35:Z36"/>
-    <mergeCell ref="AA35:AA36"/>
-    <mergeCell ref="AB35:AB36"/>
-    <mergeCell ref="AC35:AC36"/>
-    <mergeCell ref="AB37:AB39"/>
-    <mergeCell ref="AB40:AB42"/>
-    <mergeCell ref="AB49:AB51"/>
-    <mergeCell ref="R92:R94"/>
-    <mergeCell ref="AB66:AB67"/>
-    <mergeCell ref="AC66:AC67"/>
-    <mergeCell ref="AD66:AD67"/>
-    <mergeCell ref="R68:R70"/>
-    <mergeCell ref="R71:R73"/>
-    <mergeCell ref="R74:R76"/>
-    <mergeCell ref="AB74:AB76"/>
-    <mergeCell ref="AC74:AC76"/>
-    <mergeCell ref="AD74:AD76"/>
-    <mergeCell ref="R77:R79"/>
-    <mergeCell ref="R80:R82"/>
-    <mergeCell ref="R83:R85"/>
-    <mergeCell ref="R86:R88"/>
-    <mergeCell ref="R89:R91"/>
-    <mergeCell ref="AB77:AB79"/>
-    <mergeCell ref="AB52:AB54"/>
-    <mergeCell ref="AB55:AB57"/>
-    <mergeCell ref="AB58:AB60"/>
-    <mergeCell ref="AB61:AB63"/>
-    <mergeCell ref="AD37:AD39"/>
-    <mergeCell ref="AC43:AC45"/>
-    <mergeCell ref="AD40:AD42"/>
-    <mergeCell ref="AC46:AC48"/>
-    <mergeCell ref="AD43:AD45"/>
-    <mergeCell ref="AD46:AD48"/>
-    <mergeCell ref="AC37:AC39"/>
-    <mergeCell ref="AC40:AC42"/>
-    <mergeCell ref="AD49:AD51"/>
-    <mergeCell ref="AC55:AC57"/>
-    <mergeCell ref="AD52:AD54"/>
-    <mergeCell ref="AC58:AC60"/>
-    <mergeCell ref="AD55:AD57"/>
-    <mergeCell ref="AD58:AD60"/>
-    <mergeCell ref="AC49:AC51"/>
-    <mergeCell ref="AC52:AC54"/>
-    <mergeCell ref="AD61:AD63"/>
-    <mergeCell ref="AC61:AC63"/>
-    <mergeCell ref="AB68:AB70"/>
-    <mergeCell ref="AC68:AC70"/>
-    <mergeCell ref="AD68:AD70"/>
-    <mergeCell ref="AB71:AB73"/>
-    <mergeCell ref="AC71:AC73"/>
-    <mergeCell ref="AD71:AD73"/>
-    <mergeCell ref="AC77:AC79"/>
-    <mergeCell ref="AD77:AD79"/>
-    <mergeCell ref="AB80:AB82"/>
-    <mergeCell ref="AC80:AC82"/>
-    <mergeCell ref="AD80:AD82"/>
-    <mergeCell ref="AB83:AB85"/>
-    <mergeCell ref="AC83:AC85"/>
-    <mergeCell ref="AD83:AD85"/>
+    <mergeCell ref="AB92:AB94"/>
+    <mergeCell ref="AC92:AC94"/>
+    <mergeCell ref="AD92:AD94"/>
+    <mergeCell ref="AB95:AB97"/>
+    <mergeCell ref="AC95:AC97"/>
+    <mergeCell ref="AD95:AD97"/>
     <mergeCell ref="AB86:AB88"/>
     <mergeCell ref="AC86:AC88"/>
     <mergeCell ref="AD86:AD88"/>
     <mergeCell ref="AB89:AB91"/>
     <mergeCell ref="AC89:AC91"/>
     <mergeCell ref="AD89:AD91"/>
-    <mergeCell ref="AB92:AB94"/>
-    <mergeCell ref="AC92:AC94"/>
-    <mergeCell ref="AD92:AD94"/>
+    <mergeCell ref="AC80:AC82"/>
+    <mergeCell ref="AD80:AD82"/>
+    <mergeCell ref="AB83:AB85"/>
+    <mergeCell ref="AC83:AC85"/>
+    <mergeCell ref="AD83:AD85"/>
+    <mergeCell ref="AB71:AB73"/>
+    <mergeCell ref="AC71:AC73"/>
+    <mergeCell ref="AD71:AD73"/>
+    <mergeCell ref="AB74:AB76"/>
+    <mergeCell ref="AC74:AC76"/>
+    <mergeCell ref="AD74:AD76"/>
+    <mergeCell ref="AD58:AD60"/>
+    <mergeCell ref="AD61:AD63"/>
+    <mergeCell ref="AC52:AC54"/>
+    <mergeCell ref="AC55:AC57"/>
+    <mergeCell ref="AD64:AD66"/>
+    <mergeCell ref="AC64:AC66"/>
+    <mergeCell ref="AB55:AB57"/>
+    <mergeCell ref="AB58:AB60"/>
+    <mergeCell ref="AB61:AB63"/>
+    <mergeCell ref="AB64:AB66"/>
+    <mergeCell ref="AD40:AD42"/>
+    <mergeCell ref="AC46:AC48"/>
+    <mergeCell ref="AD43:AD45"/>
+    <mergeCell ref="AC49:AC51"/>
+    <mergeCell ref="AD46:AD48"/>
+    <mergeCell ref="AD49:AD51"/>
+    <mergeCell ref="AC40:AC42"/>
+    <mergeCell ref="AC43:AC45"/>
+    <mergeCell ref="AD52:AD54"/>
+    <mergeCell ref="AC58:AC60"/>
+    <mergeCell ref="AD55:AD57"/>
+    <mergeCell ref="AC61:AC63"/>
+    <mergeCell ref="R95:R97"/>
+    <mergeCell ref="AB69:AB70"/>
+    <mergeCell ref="AC69:AC70"/>
+    <mergeCell ref="AD69:AD70"/>
+    <mergeCell ref="R71:R73"/>
+    <mergeCell ref="R74:R76"/>
+    <mergeCell ref="R77:R79"/>
+    <mergeCell ref="AB77:AB79"/>
+    <mergeCell ref="AC77:AC79"/>
+    <mergeCell ref="AD77:AD79"/>
+    <mergeCell ref="R80:R82"/>
+    <mergeCell ref="R83:R85"/>
+    <mergeCell ref="R86:R88"/>
+    <mergeCell ref="R89:R91"/>
+    <mergeCell ref="R92:R94"/>
+    <mergeCell ref="AB80:AB82"/>
+    <mergeCell ref="AB46:AB48"/>
+    <mergeCell ref="AB49:AB51"/>
+    <mergeCell ref="AD38:AD39"/>
+    <mergeCell ref="R69:S70"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="X69:Y69"/>
+    <mergeCell ref="Z69:Z70"/>
+    <mergeCell ref="AA69:AA70"/>
+    <mergeCell ref="Z38:Z39"/>
+    <mergeCell ref="AA38:AA39"/>
+    <mergeCell ref="AB38:AB39"/>
+    <mergeCell ref="AC38:AC39"/>
+    <mergeCell ref="AB40:AB42"/>
+    <mergeCell ref="AB43:AB45"/>
+    <mergeCell ref="AB52:AB54"/>
+    <mergeCell ref="V38:W38"/>
+    <mergeCell ref="X38:Y38"/>
+    <mergeCell ref="R38:S39"/>
+    <mergeCell ref="R49:R51"/>
+    <mergeCell ref="R52:R54"/>
+    <mergeCell ref="R55:R57"/>
+    <mergeCell ref="R58:R60"/>
+    <mergeCell ref="R61:R63"/>
+    <mergeCell ref="R64:R66"/>
+    <mergeCell ref="T38:U38"/>
+    <mergeCell ref="R40:R42"/>
+    <mergeCell ref="R43:R45"/>
+    <mergeCell ref="R46:R48"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
